--- a/_data/BTCUSDT_30m.xlsx
+++ b/_data/BTCUSDT_30m.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1670"/>
+  <dimension ref="A1:F2014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33801,6 +33801,6886 @@
         <v>228.30931</v>
       </c>
     </row>
+    <row r="1671" spans="1:6">
+      <c r="A1671" s="2">
+        <v>45534.45833333334</v>
+      </c>
+      <c r="B1671">
+        <v>59581.13</v>
+      </c>
+      <c r="C1671">
+        <v>59650</v>
+      </c>
+      <c r="D1671">
+        <v>59422.17</v>
+      </c>
+      <c r="E1671">
+        <v>59535.9</v>
+      </c>
+      <c r="F1671">
+        <v>278.42656</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:6">
+      <c r="A1672" s="2">
+        <v>45534.47916666666</v>
+      </c>
+      <c r="B1672">
+        <v>59535.9</v>
+      </c>
+      <c r="C1672">
+        <v>59554</v>
+      </c>
+      <c r="D1672">
+        <v>59318</v>
+      </c>
+      <c r="E1672">
+        <v>59396</v>
+      </c>
+      <c r="F1672">
+        <v>664.22384</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:6">
+      <c r="A1673" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1673">
+        <v>59396</v>
+      </c>
+      <c r="C1673">
+        <v>59665.63</v>
+      </c>
+      <c r="D1673">
+        <v>59375</v>
+      </c>
+      <c r="E1673">
+        <v>59558</v>
+      </c>
+      <c r="F1673">
+        <v>438.12233</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6">
+      <c r="A1674" s="2">
+        <v>45534.52083333334</v>
+      </c>
+      <c r="B1674">
+        <v>59558</v>
+      </c>
+      <c r="C1674">
+        <v>59944.07</v>
+      </c>
+      <c r="D1674">
+        <v>59436.28</v>
+      </c>
+      <c r="E1674">
+        <v>59539</v>
+      </c>
+      <c r="F1674">
+        <v>1122.86033</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6">
+      <c r="A1675" s="2">
+        <v>45534.54166666666</v>
+      </c>
+      <c r="B1675">
+        <v>59538.99</v>
+      </c>
+      <c r="C1675">
+        <v>59609.28</v>
+      </c>
+      <c r="D1675">
+        <v>59402</v>
+      </c>
+      <c r="E1675">
+        <v>59572</v>
+      </c>
+      <c r="F1675">
+        <v>306.58345</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6">
+      <c r="A1676" s="2">
+        <v>45534.5625</v>
+      </c>
+      <c r="B1676">
+        <v>59571.99</v>
+      </c>
+      <c r="C1676">
+        <v>59668</v>
+      </c>
+      <c r="D1676">
+        <v>58901</v>
+      </c>
+      <c r="E1676">
+        <v>59653</v>
+      </c>
+      <c r="F1676">
+        <v>1329.61442</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6">
+      <c r="A1677" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1677">
+        <v>59653</v>
+      </c>
+      <c r="C1677">
+        <v>59830</v>
+      </c>
+      <c r="D1677">
+        <v>59036</v>
+      </c>
+      <c r="E1677">
+        <v>59287</v>
+      </c>
+      <c r="F1677">
+        <v>1353.46604</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6">
+      <c r="A1678" s="2">
+        <v>45534.60416666666</v>
+      </c>
+      <c r="B1678">
+        <v>59286.87</v>
+      </c>
+      <c r="C1678">
+        <v>59328</v>
+      </c>
+      <c r="D1678">
+        <v>58441.31</v>
+      </c>
+      <c r="E1678">
+        <v>58462.89</v>
+      </c>
+      <c r="F1678">
+        <v>1779.34566</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6">
+      <c r="A1679" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="B1679">
+        <v>58462.89</v>
+      </c>
+      <c r="C1679">
+        <v>58675.01</v>
+      </c>
+      <c r="D1679">
+        <v>58032.72</v>
+      </c>
+      <c r="E1679">
+        <v>58094</v>
+      </c>
+      <c r="F1679">
+        <v>2018.72687</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6">
+      <c r="A1680" s="2">
+        <v>45534.64583333334</v>
+      </c>
+      <c r="B1680">
+        <v>58094</v>
+      </c>
+      <c r="C1680">
+        <v>58326</v>
+      </c>
+      <c r="D1680">
+        <v>57946.01</v>
+      </c>
+      <c r="E1680">
+        <v>58094.99</v>
+      </c>
+      <c r="F1680">
+        <v>2017.26774</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6">
+      <c r="A1681" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1681">
+        <v>58095</v>
+      </c>
+      <c r="C1681">
+        <v>58449.96</v>
+      </c>
+      <c r="D1681">
+        <v>57701.1</v>
+      </c>
+      <c r="E1681">
+        <v>58092</v>
+      </c>
+      <c r="F1681">
+        <v>1629.66472</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:6">
+      <c r="A1682" s="2">
+        <v>45534.6875</v>
+      </c>
+      <c r="B1682">
+        <v>58092.01</v>
+      </c>
+      <c r="C1682">
+        <v>58600</v>
+      </c>
+      <c r="D1682">
+        <v>57909.23</v>
+      </c>
+      <c r="E1682">
+        <v>58551.11</v>
+      </c>
+      <c r="F1682">
+        <v>855.10598</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6">
+      <c r="A1683" s="2">
+        <v>45534.70833333334</v>
+      </c>
+      <c r="B1683">
+        <v>58551.1</v>
+      </c>
+      <c r="C1683">
+        <v>58646.04</v>
+      </c>
+      <c r="D1683">
+        <v>58416.14</v>
+      </c>
+      <c r="E1683">
+        <v>58533.39</v>
+      </c>
+      <c r="F1683">
+        <v>659.84137</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6">
+      <c r="A1684" s="2">
+        <v>45534.72916666666</v>
+      </c>
+      <c r="B1684">
+        <v>58533.38</v>
+      </c>
+      <c r="C1684">
+        <v>58811.04</v>
+      </c>
+      <c r="D1684">
+        <v>58406</v>
+      </c>
+      <c r="E1684">
+        <v>58630.91</v>
+      </c>
+      <c r="F1684">
+        <v>512.1725</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:6">
+      <c r="A1685" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1685">
+        <v>58630.91</v>
+      </c>
+      <c r="C1685">
+        <v>59100</v>
+      </c>
+      <c r="D1685">
+        <v>58625</v>
+      </c>
+      <c r="E1685">
+        <v>59100</v>
+      </c>
+      <c r="F1685">
+        <v>670.04961</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:6">
+      <c r="A1686" s="2">
+        <v>45534.77083333334</v>
+      </c>
+      <c r="B1686">
+        <v>59100</v>
+      </c>
+      <c r="C1686">
+        <v>59371</v>
+      </c>
+      <c r="D1686">
+        <v>58879</v>
+      </c>
+      <c r="E1686">
+        <v>59370.99</v>
+      </c>
+      <c r="F1686">
+        <v>1129.46757</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6">
+      <c r="A1687" s="2">
+        <v>45534.79166666666</v>
+      </c>
+      <c r="B1687">
+        <v>59371</v>
+      </c>
+      <c r="C1687">
+        <v>59371</v>
+      </c>
+      <c r="D1687">
+        <v>58913.04</v>
+      </c>
+      <c r="E1687">
+        <v>58996</v>
+      </c>
+      <c r="F1687">
+        <v>519.44771</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:6">
+      <c r="A1688" s="2">
+        <v>45534.8125</v>
+      </c>
+      <c r="B1688">
+        <v>58996</v>
+      </c>
+      <c r="C1688">
+        <v>59011.02</v>
+      </c>
+      <c r="D1688">
+        <v>58700.01</v>
+      </c>
+      <c r="E1688">
+        <v>58700.02</v>
+      </c>
+      <c r="F1688">
+        <v>441.83655</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6">
+      <c r="A1689" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1689">
+        <v>58700.02</v>
+      </c>
+      <c r="C1689">
+        <v>58914.82</v>
+      </c>
+      <c r="D1689">
+        <v>58700</v>
+      </c>
+      <c r="E1689">
+        <v>58862.99</v>
+      </c>
+      <c r="F1689">
+        <v>274.41339</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:6">
+      <c r="A1690" s="2">
+        <v>45534.85416666666</v>
+      </c>
+      <c r="B1690">
+        <v>58863</v>
+      </c>
+      <c r="C1690">
+        <v>59048</v>
+      </c>
+      <c r="D1690">
+        <v>58806</v>
+      </c>
+      <c r="E1690">
+        <v>59048</v>
+      </c>
+      <c r="F1690">
+        <v>254.64902</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6">
+      <c r="A1691" s="2">
+        <v>45534.875</v>
+      </c>
+      <c r="B1691">
+        <v>59048</v>
+      </c>
+      <c r="C1691">
+        <v>59155</v>
+      </c>
+      <c r="D1691">
+        <v>58975.4</v>
+      </c>
+      <c r="E1691">
+        <v>59050</v>
+      </c>
+      <c r="F1691">
+        <v>239.29589</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6">
+      <c r="A1692" s="2">
+        <v>45534.89583333334</v>
+      </c>
+      <c r="B1692">
+        <v>59049.99</v>
+      </c>
+      <c r="C1692">
+        <v>59121.99</v>
+      </c>
+      <c r="D1692">
+        <v>59001.83</v>
+      </c>
+      <c r="E1692">
+        <v>59055.99</v>
+      </c>
+      <c r="F1692">
+        <v>162.98145</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6">
+      <c r="A1693" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1693">
+        <v>59056</v>
+      </c>
+      <c r="C1693">
+        <v>59258.28</v>
+      </c>
+      <c r="D1693">
+        <v>59051.1</v>
+      </c>
+      <c r="E1693">
+        <v>59155</v>
+      </c>
+      <c r="F1693">
+        <v>255.61982</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6">
+      <c r="A1694" s="2">
+        <v>45534.9375</v>
+      </c>
+      <c r="B1694">
+        <v>59154.99</v>
+      </c>
+      <c r="C1694">
+        <v>59298.89</v>
+      </c>
+      <c r="D1694">
+        <v>59108.98</v>
+      </c>
+      <c r="E1694">
+        <v>59237.5</v>
+      </c>
+      <c r="F1694">
+        <v>203.30429</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:6">
+      <c r="A1695" s="2">
+        <v>45534.95833333334</v>
+      </c>
+      <c r="B1695">
+        <v>59237.5</v>
+      </c>
+      <c r="C1695">
+        <v>59275.78</v>
+      </c>
+      <c r="D1695">
+        <v>59152</v>
+      </c>
+      <c r="E1695">
+        <v>59210</v>
+      </c>
+      <c r="F1695">
+        <v>115.29494</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6">
+      <c r="A1696" s="2">
+        <v>45534.97916666666</v>
+      </c>
+      <c r="B1696">
+        <v>59209.99</v>
+      </c>
+      <c r="C1696">
+        <v>59213.77</v>
+      </c>
+      <c r="D1696">
+        <v>59088.01</v>
+      </c>
+      <c r="E1696">
+        <v>59123.99</v>
+      </c>
+      <c r="F1696">
+        <v>165.59944</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6">
+      <c r="A1697" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1697">
+        <v>59123.99</v>
+      </c>
+      <c r="C1697">
+        <v>59380.59</v>
+      </c>
+      <c r="D1697">
+        <v>59070.4</v>
+      </c>
+      <c r="E1697">
+        <v>59374.5</v>
+      </c>
+      <c r="F1697">
+        <v>651.14734</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:6">
+      <c r="A1698" s="2">
+        <v>45535.02083333334</v>
+      </c>
+      <c r="B1698">
+        <v>59374.5</v>
+      </c>
+      <c r="C1698">
+        <v>59462.38</v>
+      </c>
+      <c r="D1698">
+        <v>59221.01</v>
+      </c>
+      <c r="E1698">
+        <v>59246.01</v>
+      </c>
+      <c r="F1698">
+        <v>312.6048</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:6">
+      <c r="A1699" s="2">
+        <v>45535.04166666666</v>
+      </c>
+      <c r="B1699">
+        <v>59246</v>
+      </c>
+      <c r="C1699">
+        <v>59335</v>
+      </c>
+      <c r="D1699">
+        <v>59180.94</v>
+      </c>
+      <c r="E1699">
+        <v>59275</v>
+      </c>
+      <c r="F1699">
+        <v>131.58785</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6">
+      <c r="A1700" s="2">
+        <v>45535.0625</v>
+      </c>
+      <c r="B1700">
+        <v>59274.99</v>
+      </c>
+      <c r="C1700">
+        <v>59324</v>
+      </c>
+      <c r="D1700">
+        <v>59245.96</v>
+      </c>
+      <c r="E1700">
+        <v>59285</v>
+      </c>
+      <c r="F1700">
+        <v>108.74058</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6">
+      <c r="A1701" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1701">
+        <v>59285</v>
+      </c>
+      <c r="C1701">
+        <v>59293</v>
+      </c>
+      <c r="D1701">
+        <v>59119.01</v>
+      </c>
+      <c r="E1701">
+        <v>59180</v>
+      </c>
+      <c r="F1701">
+        <v>152.77554</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6">
+      <c r="A1702" s="2">
+        <v>45535.10416666666</v>
+      </c>
+      <c r="B1702">
+        <v>59180</v>
+      </c>
+      <c r="C1702">
+        <v>59196.5</v>
+      </c>
+      <c r="D1702">
+        <v>59149</v>
+      </c>
+      <c r="E1702">
+        <v>59196.5</v>
+      </c>
+      <c r="F1702">
+        <v>87.44794</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6">
+      <c r="A1703" s="2">
+        <v>45535.125</v>
+      </c>
+      <c r="B1703">
+        <v>59196.5</v>
+      </c>
+      <c r="C1703">
+        <v>59213.77</v>
+      </c>
+      <c r="D1703">
+        <v>59129.33</v>
+      </c>
+      <c r="E1703">
+        <v>59194.99</v>
+      </c>
+      <c r="F1703">
+        <v>89.78737</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6">
+      <c r="A1704" s="2">
+        <v>45535.14583333334</v>
+      </c>
+      <c r="B1704">
+        <v>59194.99</v>
+      </c>
+      <c r="C1704">
+        <v>59254</v>
+      </c>
+      <c r="D1704">
+        <v>59194.99</v>
+      </c>
+      <c r="E1704">
+        <v>59232.01</v>
+      </c>
+      <c r="F1704">
+        <v>113.7135</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6">
+      <c r="A1705" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1705">
+        <v>59232.01</v>
+      </c>
+      <c r="C1705">
+        <v>59281.09</v>
+      </c>
+      <c r="D1705">
+        <v>59215</v>
+      </c>
+      <c r="E1705">
+        <v>59277.01</v>
+      </c>
+      <c r="F1705">
+        <v>117.63383</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6">
+      <c r="A1706" s="2">
+        <v>45535.1875</v>
+      </c>
+      <c r="B1706">
+        <v>59277</v>
+      </c>
+      <c r="C1706">
+        <v>59350</v>
+      </c>
+      <c r="D1706">
+        <v>59247</v>
+      </c>
+      <c r="E1706">
+        <v>59350</v>
+      </c>
+      <c r="F1706">
+        <v>124.9693</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6">
+      <c r="A1707" s="2">
+        <v>45535.20833333334</v>
+      </c>
+      <c r="B1707">
+        <v>59350</v>
+      </c>
+      <c r="C1707">
+        <v>59350</v>
+      </c>
+      <c r="D1707">
+        <v>59238.02</v>
+      </c>
+      <c r="E1707">
+        <v>59244.8</v>
+      </c>
+      <c r="F1707">
+        <v>142.52677</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6">
+      <c r="A1708" s="2">
+        <v>45535.22916666666</v>
+      </c>
+      <c r="B1708">
+        <v>59244.79</v>
+      </c>
+      <c r="C1708">
+        <v>59304</v>
+      </c>
+      <c r="D1708">
+        <v>59211.88</v>
+      </c>
+      <c r="E1708">
+        <v>59212</v>
+      </c>
+      <c r="F1708">
+        <v>184.01141</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6">
+      <c r="A1709" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1709">
+        <v>59212.01</v>
+      </c>
+      <c r="C1709">
+        <v>59253.99</v>
+      </c>
+      <c r="D1709">
+        <v>59200</v>
+      </c>
+      <c r="E1709">
+        <v>59253.99</v>
+      </c>
+      <c r="F1709">
+        <v>127.9049</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6">
+      <c r="A1710" s="2">
+        <v>45535.27083333334</v>
+      </c>
+      <c r="B1710">
+        <v>59253.99</v>
+      </c>
+      <c r="C1710">
+        <v>59264.95</v>
+      </c>
+      <c r="D1710">
+        <v>59151.8</v>
+      </c>
+      <c r="E1710">
+        <v>59154.01</v>
+      </c>
+      <c r="F1710">
+        <v>154.26802</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6">
+      <c r="A1711" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="B1711">
+        <v>59154.02</v>
+      </c>
+      <c r="C1711">
+        <v>59188.99</v>
+      </c>
+      <c r="D1711">
+        <v>59068.81</v>
+      </c>
+      <c r="E1711">
+        <v>59072.77</v>
+      </c>
+      <c r="F1711">
+        <v>169.107</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6">
+      <c r="A1712" s="2">
+        <v>45535.3125</v>
+      </c>
+      <c r="B1712">
+        <v>59072.76</v>
+      </c>
+      <c r="C1712">
+        <v>59180.18</v>
+      </c>
+      <c r="D1712">
+        <v>59043.12</v>
+      </c>
+      <c r="E1712">
+        <v>59095</v>
+      </c>
+      <c r="F1712">
+        <v>210.24938</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6">
+      <c r="A1713" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1713">
+        <v>59095.01</v>
+      </c>
+      <c r="C1713">
+        <v>59130</v>
+      </c>
+      <c r="D1713">
+        <v>59066.99</v>
+      </c>
+      <c r="E1713">
+        <v>59090</v>
+      </c>
+      <c r="F1713">
+        <v>104.23765</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6">
+      <c r="A1714" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="B1714">
+        <v>59090</v>
+      </c>
+      <c r="C1714">
+        <v>59120</v>
+      </c>
+      <c r="D1714">
+        <v>58981.1</v>
+      </c>
+      <c r="E1714">
+        <v>58985.01</v>
+      </c>
+      <c r="F1714">
+        <v>210.42334</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6">
+      <c r="A1715" s="2">
+        <v>45535.375</v>
+      </c>
+      <c r="B1715">
+        <v>58985.01</v>
+      </c>
+      <c r="C1715">
+        <v>59023</v>
+      </c>
+      <c r="D1715">
+        <v>58831.88</v>
+      </c>
+      <c r="E1715">
+        <v>58932</v>
+      </c>
+      <c r="F1715">
+        <v>286.59379</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6">
+      <c r="A1716" s="2">
+        <v>45535.39583333334</v>
+      </c>
+      <c r="B1716">
+        <v>58931.99</v>
+      </c>
+      <c r="C1716">
+        <v>58996</v>
+      </c>
+      <c r="D1716">
+        <v>58874.53</v>
+      </c>
+      <c r="E1716">
+        <v>58905.01</v>
+      </c>
+      <c r="F1716">
+        <v>236.9425</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6">
+      <c r="A1717" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1717">
+        <v>58905.01</v>
+      </c>
+      <c r="C1717">
+        <v>59059.78</v>
+      </c>
+      <c r="D1717">
+        <v>58872</v>
+      </c>
+      <c r="E1717">
+        <v>59031</v>
+      </c>
+      <c r="F1717">
+        <v>180.884</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6">
+      <c r="A1718" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="B1718">
+        <v>59031</v>
+      </c>
+      <c r="C1718">
+        <v>59170.4</v>
+      </c>
+      <c r="D1718">
+        <v>59025</v>
+      </c>
+      <c r="E1718">
+        <v>59136.99</v>
+      </c>
+      <c r="F1718">
+        <v>203.22467</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6">
+      <c r="A1719" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="B1719">
+        <v>59136.99</v>
+      </c>
+      <c r="C1719">
+        <v>59188.9</v>
+      </c>
+      <c r="D1719">
+        <v>59108</v>
+      </c>
+      <c r="E1719">
+        <v>59130.63</v>
+      </c>
+      <c r="F1719">
+        <v>94.5496</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6">
+      <c r="A1720" s="2">
+        <v>45535.47916666666</v>
+      </c>
+      <c r="B1720">
+        <v>59130.64</v>
+      </c>
+      <c r="C1720">
+        <v>59161.1</v>
+      </c>
+      <c r="D1720">
+        <v>59103.54</v>
+      </c>
+      <c r="E1720">
+        <v>59120.99</v>
+      </c>
+      <c r="F1720">
+        <v>87.23233</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6">
+      <c r="A1721" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1721">
+        <v>59120.99</v>
+      </c>
+      <c r="C1721">
+        <v>59177.99</v>
+      </c>
+      <c r="D1721">
+        <v>59071.1</v>
+      </c>
+      <c r="E1721">
+        <v>59132.27</v>
+      </c>
+      <c r="F1721">
+        <v>151.54093</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6">
+      <c r="A1722" s="2">
+        <v>45535.52083333334</v>
+      </c>
+      <c r="B1722">
+        <v>59132.27</v>
+      </c>
+      <c r="C1722">
+        <v>59244.04</v>
+      </c>
+      <c r="D1722">
+        <v>59112</v>
+      </c>
+      <c r="E1722">
+        <v>59192.26</v>
+      </c>
+      <c r="F1722">
+        <v>232.40086</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6">
+      <c r="A1723" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="B1723">
+        <v>59192.26</v>
+      </c>
+      <c r="C1723">
+        <v>59244.04</v>
+      </c>
+      <c r="D1723">
+        <v>59184.34</v>
+      </c>
+      <c r="E1723">
+        <v>59192</v>
+      </c>
+      <c r="F1723">
+        <v>117.0062</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6">
+      <c r="A1724" s="2">
+        <v>45535.5625</v>
+      </c>
+      <c r="B1724">
+        <v>59192.01</v>
+      </c>
+      <c r="C1724">
+        <v>59218</v>
+      </c>
+      <c r="D1724">
+        <v>58929.96</v>
+      </c>
+      <c r="E1724">
+        <v>58954.99</v>
+      </c>
+      <c r="F1724">
+        <v>258.75346</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6">
+      <c r="A1725" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1725">
+        <v>58955</v>
+      </c>
+      <c r="C1725">
+        <v>59118.31</v>
+      </c>
+      <c r="D1725">
+        <v>58892.15</v>
+      </c>
+      <c r="E1725">
+        <v>59088.53</v>
+      </c>
+      <c r="F1725">
+        <v>271.69307</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6">
+      <c r="A1726" s="2">
+        <v>45535.60416666666</v>
+      </c>
+      <c r="B1726">
+        <v>59088.52</v>
+      </c>
+      <c r="C1726">
+        <v>59170.11</v>
+      </c>
+      <c r="D1726">
+        <v>59036.97</v>
+      </c>
+      <c r="E1726">
+        <v>59126</v>
+      </c>
+      <c r="F1726">
+        <v>220.24324</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:6">
+      <c r="A1727" s="2">
+        <v>45535.625</v>
+      </c>
+      <c r="B1727">
+        <v>59126.01</v>
+      </c>
+      <c r="C1727">
+        <v>59155</v>
+      </c>
+      <c r="D1727">
+        <v>58972</v>
+      </c>
+      <c r="E1727">
+        <v>58986.99</v>
+      </c>
+      <c r="F1727">
+        <v>229.18052</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:6">
+      <c r="A1728" s="2">
+        <v>45535.64583333334</v>
+      </c>
+      <c r="B1728">
+        <v>58986.99</v>
+      </c>
+      <c r="C1728">
+        <v>59051</v>
+      </c>
+      <c r="D1728">
+        <v>58954.81</v>
+      </c>
+      <c r="E1728">
+        <v>59006.54</v>
+      </c>
+      <c r="F1728">
+        <v>294.16773</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6">
+      <c r="A1729" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1729">
+        <v>59006.54</v>
+      </c>
+      <c r="C1729">
+        <v>59019</v>
+      </c>
+      <c r="D1729">
+        <v>58949.88</v>
+      </c>
+      <c r="E1729">
+        <v>58985.01</v>
+      </c>
+      <c r="F1729">
+        <v>144.79903</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6">
+      <c r="A1730" s="2">
+        <v>45535.6875</v>
+      </c>
+      <c r="B1730">
+        <v>58985.01</v>
+      </c>
+      <c r="C1730">
+        <v>59032.12</v>
+      </c>
+      <c r="D1730">
+        <v>58854</v>
+      </c>
+      <c r="E1730">
+        <v>58971.55</v>
+      </c>
+      <c r="F1730">
+        <v>196.82485</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6">
+      <c r="A1731" s="2">
+        <v>45535.70833333334</v>
+      </c>
+      <c r="B1731">
+        <v>58971.55</v>
+      </c>
+      <c r="C1731">
+        <v>58971.56</v>
+      </c>
+      <c r="D1731">
+        <v>58842.66</v>
+      </c>
+      <c r="E1731">
+        <v>58939.99</v>
+      </c>
+      <c r="F1731">
+        <v>186.78884</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6">
+      <c r="A1732" s="2">
+        <v>45535.72916666666</v>
+      </c>
+      <c r="B1732">
+        <v>58939.99</v>
+      </c>
+      <c r="C1732">
+        <v>59034.84</v>
+      </c>
+      <c r="D1732">
+        <v>58744</v>
+      </c>
+      <c r="E1732">
+        <v>59013.16</v>
+      </c>
+      <c r="F1732">
+        <v>295.03422</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6">
+      <c r="A1733" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1733">
+        <v>59013.17</v>
+      </c>
+      <c r="C1733">
+        <v>59140.01</v>
+      </c>
+      <c r="D1733">
+        <v>58975.48</v>
+      </c>
+      <c r="E1733">
+        <v>59088</v>
+      </c>
+      <c r="F1733">
+        <v>338.5795</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6">
+      <c r="A1734" s="2">
+        <v>45535.77083333334</v>
+      </c>
+      <c r="B1734">
+        <v>59088</v>
+      </c>
+      <c r="C1734">
+        <v>59121.1</v>
+      </c>
+      <c r="D1734">
+        <v>58868.22</v>
+      </c>
+      <c r="E1734">
+        <v>58920.52</v>
+      </c>
+      <c r="F1734">
+        <v>198.24993</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6">
+      <c r="A1735" s="2">
+        <v>45535.79166666666</v>
+      </c>
+      <c r="B1735">
+        <v>58920.53</v>
+      </c>
+      <c r="C1735">
+        <v>58941.29</v>
+      </c>
+      <c r="D1735">
+        <v>58840.75</v>
+      </c>
+      <c r="E1735">
+        <v>58902</v>
+      </c>
+      <c r="F1735">
+        <v>144.33328</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6">
+      <c r="A1736" s="2">
+        <v>45535.8125</v>
+      </c>
+      <c r="B1736">
+        <v>58902.01</v>
+      </c>
+      <c r="C1736">
+        <v>58915.5</v>
+      </c>
+      <c r="D1736">
+        <v>58823.73</v>
+      </c>
+      <c r="E1736">
+        <v>58856</v>
+      </c>
+      <c r="F1736">
+        <v>132.65825</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6">
+      <c r="A1737" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1737">
+        <v>58856</v>
+      </c>
+      <c r="C1737">
+        <v>58916.01</v>
+      </c>
+      <c r="D1737">
+        <v>58763.29</v>
+      </c>
+      <c r="E1737">
+        <v>58839.01</v>
+      </c>
+      <c r="F1737">
+        <v>128.70555</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6">
+      <c r="A1738" s="2">
+        <v>45535.85416666666</v>
+      </c>
+      <c r="B1738">
+        <v>58839.01</v>
+      </c>
+      <c r="C1738">
+        <v>58971.56</v>
+      </c>
+      <c r="D1738">
+        <v>58839.01</v>
+      </c>
+      <c r="E1738">
+        <v>58951.08</v>
+      </c>
+      <c r="F1738">
+        <v>133.92706</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6">
+      <c r="A1739" s="2">
+        <v>45535.875</v>
+      </c>
+      <c r="B1739">
+        <v>58951.09</v>
+      </c>
+      <c r="C1739">
+        <v>58978</v>
+      </c>
+      <c r="D1739">
+        <v>58900</v>
+      </c>
+      <c r="E1739">
+        <v>58977.25</v>
+      </c>
+      <c r="F1739">
+        <v>226.41077</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6">
+      <c r="A1740" s="2">
+        <v>45535.89583333334</v>
+      </c>
+      <c r="B1740">
+        <v>58975</v>
+      </c>
+      <c r="C1740">
+        <v>59130</v>
+      </c>
+      <c r="D1740">
+        <v>58974.99</v>
+      </c>
+      <c r="E1740">
+        <v>59061.01</v>
+      </c>
+      <c r="F1740">
+        <v>111.66101</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6">
+      <c r="A1741" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1741">
+        <v>59061</v>
+      </c>
+      <c r="C1741">
+        <v>59141.72</v>
+      </c>
+      <c r="D1741">
+        <v>59026</v>
+      </c>
+      <c r="E1741">
+        <v>59039</v>
+      </c>
+      <c r="F1741">
+        <v>143.16991</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6">
+      <c r="A1742" s="2">
+        <v>45535.9375</v>
+      </c>
+      <c r="B1742">
+        <v>59038.99</v>
+      </c>
+      <c r="C1742">
+        <v>59062</v>
+      </c>
+      <c r="D1742">
+        <v>59006</v>
+      </c>
+      <c r="E1742">
+        <v>59024</v>
+      </c>
+      <c r="F1742">
+        <v>60.18993</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6">
+      <c r="A1743" s="2">
+        <v>45535.95833333334</v>
+      </c>
+      <c r="B1743">
+        <v>59023.99</v>
+      </c>
+      <c r="C1743">
+        <v>59056</v>
+      </c>
+      <c r="D1743">
+        <v>58934</v>
+      </c>
+      <c r="E1743">
+        <v>58964.59</v>
+      </c>
+      <c r="F1743">
+        <v>70.60881000000001</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6">
+      <c r="A1744" s="2">
+        <v>45535.97916666666</v>
+      </c>
+      <c r="B1744">
+        <v>58964.59</v>
+      </c>
+      <c r="C1744">
+        <v>58976.02</v>
+      </c>
+      <c r="D1744">
+        <v>58927</v>
+      </c>
+      <c r="E1744">
+        <v>58973.99</v>
+      </c>
+      <c r="F1744">
+        <v>212.95635</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6">
+      <c r="A1745" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1745">
+        <v>58974</v>
+      </c>
+      <c r="C1745">
+        <v>59076.59</v>
+      </c>
+      <c r="D1745">
+        <v>58911</v>
+      </c>
+      <c r="E1745">
+        <v>58961.41</v>
+      </c>
+      <c r="F1745">
+        <v>166.6283</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6">
+      <c r="A1746" s="2">
+        <v>45536.02083333334</v>
+      </c>
+      <c r="B1746">
+        <v>58961.4</v>
+      </c>
+      <c r="C1746">
+        <v>59019</v>
+      </c>
+      <c r="D1746">
+        <v>58900</v>
+      </c>
+      <c r="E1746">
+        <v>58930</v>
+      </c>
+      <c r="F1746">
+        <v>122.49871</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6">
+      <c r="A1747" s="2">
+        <v>45536.04166666666</v>
+      </c>
+      <c r="B1747">
+        <v>58929.99</v>
+      </c>
+      <c r="C1747">
+        <v>58957</v>
+      </c>
+      <c r="D1747">
+        <v>58850</v>
+      </c>
+      <c r="E1747">
+        <v>58922</v>
+      </c>
+      <c r="F1747">
+        <v>156.77656</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:6">
+      <c r="A1748" s="2">
+        <v>45536.0625</v>
+      </c>
+      <c r="B1748">
+        <v>58922</v>
+      </c>
+      <c r="C1748">
+        <v>58941.29</v>
+      </c>
+      <c r="D1748">
+        <v>58819.78</v>
+      </c>
+      <c r="E1748">
+        <v>58828.01</v>
+      </c>
+      <c r="F1748">
+        <v>173.43886</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6">
+      <c r="A1749" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1749">
+        <v>58828</v>
+      </c>
+      <c r="C1749">
+        <v>58851.65</v>
+      </c>
+      <c r="D1749">
+        <v>58280</v>
+      </c>
+      <c r="E1749">
+        <v>58315</v>
+      </c>
+      <c r="F1749">
+        <v>828.50714</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6">
+      <c r="A1750" s="2">
+        <v>45536.10416666666</v>
+      </c>
+      <c r="B1750">
+        <v>58314.99</v>
+      </c>
+      <c r="C1750">
+        <v>58560.18</v>
+      </c>
+      <c r="D1750">
+        <v>58276.01</v>
+      </c>
+      <c r="E1750">
+        <v>58540.25</v>
+      </c>
+      <c r="F1750">
+        <v>428.26928</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:6">
+      <c r="A1751" s="2">
+        <v>45536.125</v>
+      </c>
+      <c r="B1751">
+        <v>58540.25</v>
+      </c>
+      <c r="C1751">
+        <v>58672.01</v>
+      </c>
+      <c r="D1751">
+        <v>58399.01</v>
+      </c>
+      <c r="E1751">
+        <v>58645.48</v>
+      </c>
+      <c r="F1751">
+        <v>284.83499</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6">
+      <c r="A1752" s="2">
+        <v>45536.14583333334</v>
+      </c>
+      <c r="B1752">
+        <v>58645.48</v>
+      </c>
+      <c r="C1752">
+        <v>58667</v>
+      </c>
+      <c r="D1752">
+        <v>58494.6</v>
+      </c>
+      <c r="E1752">
+        <v>58524.21</v>
+      </c>
+      <c r="F1752">
+        <v>153.04819</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6">
+      <c r="A1753" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1753">
+        <v>58524.21</v>
+      </c>
+      <c r="C1753">
+        <v>58547.71</v>
+      </c>
+      <c r="D1753">
+        <v>58391.11</v>
+      </c>
+      <c r="E1753">
+        <v>58547.71</v>
+      </c>
+      <c r="F1753">
+        <v>197.17115</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6">
+      <c r="A1754" s="2">
+        <v>45536.1875</v>
+      </c>
+      <c r="B1754">
+        <v>58547.7</v>
+      </c>
+      <c r="C1754">
+        <v>58599.98</v>
+      </c>
+      <c r="D1754">
+        <v>58355</v>
+      </c>
+      <c r="E1754">
+        <v>58442</v>
+      </c>
+      <c r="F1754">
+        <v>162.41971</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6">
+      <c r="A1755" s="2">
+        <v>45536.20833333334</v>
+      </c>
+      <c r="B1755">
+        <v>58442.01</v>
+      </c>
+      <c r="C1755">
+        <v>58468</v>
+      </c>
+      <c r="D1755">
+        <v>57850</v>
+      </c>
+      <c r="E1755">
+        <v>58036.02</v>
+      </c>
+      <c r="F1755">
+        <v>1037.99108</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6">
+      <c r="A1756" s="2">
+        <v>45536.22916666666</v>
+      </c>
+      <c r="B1756">
+        <v>58036.03</v>
+      </c>
+      <c r="C1756">
+        <v>58080.99</v>
+      </c>
+      <c r="D1756">
+        <v>57777</v>
+      </c>
+      <c r="E1756">
+        <v>57986</v>
+      </c>
+      <c r="F1756">
+        <v>990.37892</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6">
+      <c r="A1757" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1757">
+        <v>57986</v>
+      </c>
+      <c r="C1757">
+        <v>58213.76</v>
+      </c>
+      <c r="D1757">
+        <v>57952</v>
+      </c>
+      <c r="E1757">
+        <v>58180</v>
+      </c>
+      <c r="F1757">
+        <v>223.76447</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6">
+      <c r="A1758" s="2">
+        <v>45536.27083333334</v>
+      </c>
+      <c r="B1758">
+        <v>58179.99</v>
+      </c>
+      <c r="C1758">
+        <v>58298</v>
+      </c>
+      <c r="D1758">
+        <v>58112.01</v>
+      </c>
+      <c r="E1758">
+        <v>58201.1</v>
+      </c>
+      <c r="F1758">
+        <v>247.03001</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6">
+      <c r="A1759" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="B1759">
+        <v>58201.11</v>
+      </c>
+      <c r="C1759">
+        <v>58264</v>
+      </c>
+      <c r="D1759">
+        <v>58131.12</v>
+      </c>
+      <c r="E1759">
+        <v>58141.11</v>
+      </c>
+      <c r="F1759">
+        <v>176.78858</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6">
+      <c r="A1760" s="2">
+        <v>45536.3125</v>
+      </c>
+      <c r="B1760">
+        <v>58141.1</v>
+      </c>
+      <c r="C1760">
+        <v>58500</v>
+      </c>
+      <c r="D1760">
+        <v>58141.1</v>
+      </c>
+      <c r="E1760">
+        <v>58478.64</v>
+      </c>
+      <c r="F1760">
+        <v>330.61801</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6">
+      <c r="A1761" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1761">
+        <v>58478.64</v>
+      </c>
+      <c r="C1761">
+        <v>58504.81</v>
+      </c>
+      <c r="D1761">
+        <v>58295</v>
+      </c>
+      <c r="E1761">
+        <v>58319.01</v>
+      </c>
+      <c r="F1761">
+        <v>216.31056</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6">
+      <c r="A1762" s="2">
+        <v>45536.35416666666</v>
+      </c>
+      <c r="B1762">
+        <v>58319</v>
+      </c>
+      <c r="C1762">
+        <v>58324.01</v>
+      </c>
+      <c r="D1762">
+        <v>58200.51</v>
+      </c>
+      <c r="E1762">
+        <v>58233.99</v>
+      </c>
+      <c r="F1762">
+        <v>172.06648</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6">
+      <c r="A1763" s="2">
+        <v>45536.375</v>
+      </c>
+      <c r="B1763">
+        <v>58234</v>
+      </c>
+      <c r="C1763">
+        <v>58301</v>
+      </c>
+      <c r="D1763">
+        <v>58126.98</v>
+      </c>
+      <c r="E1763">
+        <v>58280</v>
+      </c>
+      <c r="F1763">
+        <v>243.00159</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6">
+      <c r="A1764" s="2">
+        <v>45536.39583333334</v>
+      </c>
+      <c r="B1764">
+        <v>58279.99</v>
+      </c>
+      <c r="C1764">
+        <v>58400</v>
+      </c>
+      <c r="D1764">
+        <v>58202</v>
+      </c>
+      <c r="E1764">
+        <v>58205</v>
+      </c>
+      <c r="F1764">
+        <v>236.13367</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6">
+      <c r="A1765" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1765">
+        <v>58205</v>
+      </c>
+      <c r="C1765">
+        <v>58222</v>
+      </c>
+      <c r="D1765">
+        <v>57943</v>
+      </c>
+      <c r="E1765">
+        <v>57997.03</v>
+      </c>
+      <c r="F1765">
+        <v>420.69011</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6">
+      <c r="A1766" s="2">
+        <v>45536.4375</v>
+      </c>
+      <c r="B1766">
+        <v>57997.03</v>
+      </c>
+      <c r="C1766">
+        <v>58071.1</v>
+      </c>
+      <c r="D1766">
+        <v>57896.01</v>
+      </c>
+      <c r="E1766">
+        <v>57931</v>
+      </c>
+      <c r="F1766">
+        <v>295.07713</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6">
+      <c r="A1767" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="B1767">
+        <v>57931</v>
+      </c>
+      <c r="C1767">
+        <v>58080.11</v>
+      </c>
+      <c r="D1767">
+        <v>57840</v>
+      </c>
+      <c r="E1767">
+        <v>58047.92</v>
+      </c>
+      <c r="F1767">
+        <v>452.07096</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:6">
+      <c r="A1768" s="2">
+        <v>45536.47916666666</v>
+      </c>
+      <c r="B1768">
+        <v>58047.93</v>
+      </c>
+      <c r="C1768">
+        <v>58250.21</v>
+      </c>
+      <c r="D1768">
+        <v>57988.86</v>
+      </c>
+      <c r="E1768">
+        <v>58240.52</v>
+      </c>
+      <c r="F1768">
+        <v>485.24683</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6">
+      <c r="A1769" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1769">
+        <v>58240.51</v>
+      </c>
+      <c r="C1769">
+        <v>58320.15</v>
+      </c>
+      <c r="D1769">
+        <v>58029.74</v>
+      </c>
+      <c r="E1769">
+        <v>58061.1</v>
+      </c>
+      <c r="F1769">
+        <v>349.06402</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6">
+      <c r="A1770" s="2">
+        <v>45536.52083333334</v>
+      </c>
+      <c r="B1770">
+        <v>58061.1</v>
+      </c>
+      <c r="C1770">
+        <v>58144</v>
+      </c>
+      <c r="D1770">
+        <v>57912.3</v>
+      </c>
+      <c r="E1770">
+        <v>58020</v>
+      </c>
+      <c r="F1770">
+        <v>283.10886</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6">
+      <c r="A1771" s="2">
+        <v>45536.54166666666</v>
+      </c>
+      <c r="B1771">
+        <v>58020.01</v>
+      </c>
+      <c r="C1771">
+        <v>58130.09</v>
+      </c>
+      <c r="D1771">
+        <v>57911.92</v>
+      </c>
+      <c r="E1771">
+        <v>57951.07</v>
+      </c>
+      <c r="F1771">
+        <v>331.55098</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6">
+      <c r="A1772" s="2">
+        <v>45536.5625</v>
+      </c>
+      <c r="B1772">
+        <v>57951.07</v>
+      </c>
+      <c r="C1772">
+        <v>58215</v>
+      </c>
+      <c r="D1772">
+        <v>57710</v>
+      </c>
+      <c r="E1772">
+        <v>58175.01</v>
+      </c>
+      <c r="F1772">
+        <v>912.9048299999999</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6">
+      <c r="A1773" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1773">
+        <v>58175</v>
+      </c>
+      <c r="C1773">
+        <v>58179</v>
+      </c>
+      <c r="D1773">
+        <v>57201</v>
+      </c>
+      <c r="E1773">
+        <v>57738</v>
+      </c>
+      <c r="F1773">
+        <v>2167.608</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6">
+      <c r="A1774" s="2">
+        <v>45536.60416666666</v>
+      </c>
+      <c r="B1774">
+        <v>57737.99</v>
+      </c>
+      <c r="C1774">
+        <v>58121</v>
+      </c>
+      <c r="D1774">
+        <v>57730</v>
+      </c>
+      <c r="E1774">
+        <v>57879.99</v>
+      </c>
+      <c r="F1774">
+        <v>695.5519</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6">
+      <c r="A1775" s="2">
+        <v>45536.625</v>
+      </c>
+      <c r="B1775">
+        <v>57879.99</v>
+      </c>
+      <c r="C1775">
+        <v>58044</v>
+      </c>
+      <c r="D1775">
+        <v>57815.13</v>
+      </c>
+      <c r="E1775">
+        <v>57861</v>
+      </c>
+      <c r="F1775">
+        <v>324.33441</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6">
+      <c r="A1776" s="2">
+        <v>45536.64583333334</v>
+      </c>
+      <c r="B1776">
+        <v>57861</v>
+      </c>
+      <c r="C1776">
+        <v>58360.38</v>
+      </c>
+      <c r="D1776">
+        <v>57714.35</v>
+      </c>
+      <c r="E1776">
+        <v>58217</v>
+      </c>
+      <c r="F1776">
+        <v>847.27333</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6">
+      <c r="A1777" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1777">
+        <v>58217</v>
+      </c>
+      <c r="C1777">
+        <v>58350</v>
+      </c>
+      <c r="D1777">
+        <v>58093.57</v>
+      </c>
+      <c r="E1777">
+        <v>58100</v>
+      </c>
+      <c r="F1777">
+        <v>301.46118</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6">
+      <c r="A1778" s="2">
+        <v>45536.6875</v>
+      </c>
+      <c r="B1778">
+        <v>58100.01</v>
+      </c>
+      <c r="C1778">
+        <v>58217</v>
+      </c>
+      <c r="D1778">
+        <v>58090.01</v>
+      </c>
+      <c r="E1778">
+        <v>58132.06</v>
+      </c>
+      <c r="F1778">
+        <v>221.16443</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6">
+      <c r="A1779" s="2">
+        <v>45536.70833333334</v>
+      </c>
+      <c r="B1779">
+        <v>58132.07</v>
+      </c>
+      <c r="C1779">
+        <v>58201</v>
+      </c>
+      <c r="D1779">
+        <v>57864.3</v>
+      </c>
+      <c r="E1779">
+        <v>57917.99</v>
+      </c>
+      <c r="F1779">
+        <v>296.53207</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6">
+      <c r="A1780" s="2">
+        <v>45536.72916666666</v>
+      </c>
+      <c r="B1780">
+        <v>57917.99</v>
+      </c>
+      <c r="C1780">
+        <v>58139</v>
+      </c>
+      <c r="D1780">
+        <v>57879</v>
+      </c>
+      <c r="E1780">
+        <v>58127.98</v>
+      </c>
+      <c r="F1780">
+        <v>274.81218</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6">
+      <c r="A1781" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1781">
+        <v>58127.98</v>
+      </c>
+      <c r="C1781">
+        <v>58788.93</v>
+      </c>
+      <c r="D1781">
+        <v>58122</v>
+      </c>
+      <c r="E1781">
+        <v>58532.61</v>
+      </c>
+      <c r="F1781">
+        <v>550.72664</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6">
+      <c r="A1782" s="2">
+        <v>45536.77083333334</v>
+      </c>
+      <c r="B1782">
+        <v>58532.61</v>
+      </c>
+      <c r="C1782">
+        <v>58621.09</v>
+      </c>
+      <c r="D1782">
+        <v>58333.23</v>
+      </c>
+      <c r="E1782">
+        <v>58541.1</v>
+      </c>
+      <c r="F1782">
+        <v>391.79857</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6">
+      <c r="A1783" s="2">
+        <v>45536.79166666666</v>
+      </c>
+      <c r="B1783">
+        <v>58541.11</v>
+      </c>
+      <c r="C1783">
+        <v>58775</v>
+      </c>
+      <c r="D1783">
+        <v>58368.42</v>
+      </c>
+      <c r="E1783">
+        <v>58378.32</v>
+      </c>
+      <c r="F1783">
+        <v>394.32808</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6">
+      <c r="A1784" s="2">
+        <v>45536.8125</v>
+      </c>
+      <c r="B1784">
+        <v>58378.32</v>
+      </c>
+      <c r="C1784">
+        <v>58532.99</v>
+      </c>
+      <c r="D1784">
+        <v>58292</v>
+      </c>
+      <c r="E1784">
+        <v>58514</v>
+      </c>
+      <c r="F1784">
+        <v>237.92114</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6">
+      <c r="A1785" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1785">
+        <v>58514.01</v>
+      </c>
+      <c r="C1785">
+        <v>58656.77</v>
+      </c>
+      <c r="D1785">
+        <v>58494.02</v>
+      </c>
+      <c r="E1785">
+        <v>58604</v>
+      </c>
+      <c r="F1785">
+        <v>212.59761</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6">
+      <c r="A1786" s="2">
+        <v>45536.85416666666</v>
+      </c>
+      <c r="B1786">
+        <v>58604.01</v>
+      </c>
+      <c r="C1786">
+        <v>58624</v>
+      </c>
+      <c r="D1786">
+        <v>58381.1</v>
+      </c>
+      <c r="E1786">
+        <v>58431.1</v>
+      </c>
+      <c r="F1786">
+        <v>122.27484</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6">
+      <c r="A1787" s="2">
+        <v>45536.875</v>
+      </c>
+      <c r="B1787">
+        <v>58431.1</v>
+      </c>
+      <c r="C1787">
+        <v>58431.1</v>
+      </c>
+      <c r="D1787">
+        <v>58138</v>
+      </c>
+      <c r="E1787">
+        <v>58180.95</v>
+      </c>
+      <c r="F1787">
+        <v>146.15286</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6">
+      <c r="A1788" s="2">
+        <v>45536.89583333334</v>
+      </c>
+      <c r="B1788">
+        <v>58180.95</v>
+      </c>
+      <c r="C1788">
+        <v>58378</v>
+      </c>
+      <c r="D1788">
+        <v>58093.57</v>
+      </c>
+      <c r="E1788">
+        <v>58351.11</v>
+      </c>
+      <c r="F1788">
+        <v>191.32764</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6">
+      <c r="A1789" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1789">
+        <v>58351.11</v>
+      </c>
+      <c r="C1789">
+        <v>58414</v>
+      </c>
+      <c r="D1789">
+        <v>57324.81</v>
+      </c>
+      <c r="E1789">
+        <v>57518.01</v>
+      </c>
+      <c r="F1789">
+        <v>983.7079199999999</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6">
+      <c r="A1790" s="2">
+        <v>45536.9375</v>
+      </c>
+      <c r="B1790">
+        <v>57518.01</v>
+      </c>
+      <c r="C1790">
+        <v>57771.1</v>
+      </c>
+      <c r="D1790">
+        <v>57232</v>
+      </c>
+      <c r="E1790">
+        <v>57309.01</v>
+      </c>
+      <c r="F1790">
+        <v>965.32194</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6">
+      <c r="A1791" s="2">
+        <v>45536.95833333334</v>
+      </c>
+      <c r="B1791">
+        <v>57309</v>
+      </c>
+      <c r="C1791">
+        <v>57598</v>
+      </c>
+      <c r="D1791">
+        <v>57205</v>
+      </c>
+      <c r="E1791">
+        <v>57374.01</v>
+      </c>
+      <c r="F1791">
+        <v>853.20171</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6">
+      <c r="A1792" s="2">
+        <v>45536.97916666666</v>
+      </c>
+      <c r="B1792">
+        <v>57374.01</v>
+      </c>
+      <c r="C1792">
+        <v>57500</v>
+      </c>
+      <c r="D1792">
+        <v>57250.4</v>
+      </c>
+      <c r="E1792">
+        <v>57301.86</v>
+      </c>
+      <c r="F1792">
+        <v>449.67098</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6">
+      <c r="A1793" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1793">
+        <v>57301.77</v>
+      </c>
+      <c r="C1793">
+        <v>57540.97</v>
+      </c>
+      <c r="D1793">
+        <v>57260</v>
+      </c>
+      <c r="E1793">
+        <v>57522</v>
+      </c>
+      <c r="F1793">
+        <v>526.2713199999999</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:6">
+      <c r="A1794" s="2">
+        <v>45537.02083333334</v>
+      </c>
+      <c r="B1794">
+        <v>57522</v>
+      </c>
+      <c r="C1794">
+        <v>57650</v>
+      </c>
+      <c r="D1794">
+        <v>57128</v>
+      </c>
+      <c r="E1794">
+        <v>57467.24</v>
+      </c>
+      <c r="F1794">
+        <v>728.1016100000001</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:6">
+      <c r="A1795" s="2">
+        <v>45537.04166666666</v>
+      </c>
+      <c r="B1795">
+        <v>57467.25</v>
+      </c>
+      <c r="C1795">
+        <v>57578.99</v>
+      </c>
+      <c r="D1795">
+        <v>57242</v>
+      </c>
+      <c r="E1795">
+        <v>57431.11</v>
+      </c>
+      <c r="F1795">
+        <v>495.73231</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:6">
+      <c r="A1796" s="2">
+        <v>45537.0625</v>
+      </c>
+      <c r="B1796">
+        <v>57431.11</v>
+      </c>
+      <c r="C1796">
+        <v>57535.99</v>
+      </c>
+      <c r="D1796">
+        <v>57254.99</v>
+      </c>
+      <c r="E1796">
+        <v>57423.23</v>
+      </c>
+      <c r="F1796">
+        <v>574.15597</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6">
+      <c r="A1797" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1797">
+        <v>57423.23</v>
+      </c>
+      <c r="C1797">
+        <v>57721</v>
+      </c>
+      <c r="D1797">
+        <v>57369</v>
+      </c>
+      <c r="E1797">
+        <v>57490.23</v>
+      </c>
+      <c r="F1797">
+        <v>757.9873700000001</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6">
+      <c r="A1798" s="2">
+        <v>45537.10416666666</v>
+      </c>
+      <c r="B1798">
+        <v>57490.24</v>
+      </c>
+      <c r="C1798">
+        <v>57550</v>
+      </c>
+      <c r="D1798">
+        <v>57294</v>
+      </c>
+      <c r="E1798">
+        <v>57509.01</v>
+      </c>
+      <c r="F1798">
+        <v>580.61382</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6">
+      <c r="A1799" s="2">
+        <v>45537.125</v>
+      </c>
+      <c r="B1799">
+        <v>57509.01</v>
+      </c>
+      <c r="C1799">
+        <v>57750</v>
+      </c>
+      <c r="D1799">
+        <v>57502.05</v>
+      </c>
+      <c r="E1799">
+        <v>57631.09</v>
+      </c>
+      <c r="F1799">
+        <v>458.69666</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6">
+      <c r="A1800" s="2">
+        <v>45537.14583333334</v>
+      </c>
+      <c r="B1800">
+        <v>57631.1</v>
+      </c>
+      <c r="C1800">
+        <v>57767.14</v>
+      </c>
+      <c r="D1800">
+        <v>57510</v>
+      </c>
+      <c r="E1800">
+        <v>57742.01</v>
+      </c>
+      <c r="F1800">
+        <v>483.32102</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6">
+      <c r="A1801" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1801">
+        <v>57742</v>
+      </c>
+      <c r="C1801">
+        <v>57766</v>
+      </c>
+      <c r="D1801">
+        <v>57599</v>
+      </c>
+      <c r="E1801">
+        <v>57666.66</v>
+      </c>
+      <c r="F1801">
+        <v>299.93741</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6">
+      <c r="A1802" s="2">
+        <v>45537.1875</v>
+      </c>
+      <c r="B1802">
+        <v>57666.67</v>
+      </c>
+      <c r="C1802">
+        <v>57670</v>
+      </c>
+      <c r="D1802">
+        <v>57445.91</v>
+      </c>
+      <c r="E1802">
+        <v>57459.51</v>
+      </c>
+      <c r="F1802">
+        <v>362.8016</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6">
+      <c r="A1803" s="2">
+        <v>45537.20833333334</v>
+      </c>
+      <c r="B1803">
+        <v>57459.51</v>
+      </c>
+      <c r="C1803">
+        <v>57700.08</v>
+      </c>
+      <c r="D1803">
+        <v>57449.75</v>
+      </c>
+      <c r="E1803">
+        <v>57694.01</v>
+      </c>
+      <c r="F1803">
+        <v>309.03789</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6">
+      <c r="A1804" s="2">
+        <v>45537.22916666666</v>
+      </c>
+      <c r="B1804">
+        <v>57694.01</v>
+      </c>
+      <c r="C1804">
+        <v>57987.99</v>
+      </c>
+      <c r="D1804">
+        <v>57614.75</v>
+      </c>
+      <c r="E1804">
+        <v>57785.01</v>
+      </c>
+      <c r="F1804">
+        <v>494.48133</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6">
+      <c r="A1805" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1805">
+        <v>57785</v>
+      </c>
+      <c r="C1805">
+        <v>57883</v>
+      </c>
+      <c r="D1805">
+        <v>57662.01</v>
+      </c>
+      <c r="E1805">
+        <v>57745</v>
+      </c>
+      <c r="F1805">
+        <v>340.49313</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6">
+      <c r="A1806" s="2">
+        <v>45537.27083333334</v>
+      </c>
+      <c r="B1806">
+        <v>57745.01</v>
+      </c>
+      <c r="C1806">
+        <v>57786</v>
+      </c>
+      <c r="D1806">
+        <v>57681</v>
+      </c>
+      <c r="E1806">
+        <v>57688</v>
+      </c>
+      <c r="F1806">
+        <v>128.69949</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:6">
+      <c r="A1807" s="2">
+        <v>45537.29166666666</v>
+      </c>
+      <c r="B1807">
+        <v>57688</v>
+      </c>
+      <c r="C1807">
+        <v>57792</v>
+      </c>
+      <c r="D1807">
+        <v>57501.1</v>
+      </c>
+      <c r="E1807">
+        <v>57530</v>
+      </c>
+      <c r="F1807">
+        <v>318.21658</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:6">
+      <c r="A1808" s="2">
+        <v>45537.3125</v>
+      </c>
+      <c r="B1808">
+        <v>57530.01</v>
+      </c>
+      <c r="C1808">
+        <v>57597</v>
+      </c>
+      <c r="D1808">
+        <v>57362.06</v>
+      </c>
+      <c r="E1808">
+        <v>57547.99</v>
+      </c>
+      <c r="F1808">
+        <v>362.93841</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6">
+      <c r="A1809" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1809">
+        <v>57548</v>
+      </c>
+      <c r="C1809">
+        <v>58161.1</v>
+      </c>
+      <c r="D1809">
+        <v>57520.12</v>
+      </c>
+      <c r="E1809">
+        <v>58161.09</v>
+      </c>
+      <c r="F1809">
+        <v>1070.32179</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:6">
+      <c r="A1810" s="2">
+        <v>45537.35416666666</v>
+      </c>
+      <c r="B1810">
+        <v>58161.09</v>
+      </c>
+      <c r="C1810">
+        <v>58300</v>
+      </c>
+      <c r="D1810">
+        <v>58054</v>
+      </c>
+      <c r="E1810">
+        <v>58056.01</v>
+      </c>
+      <c r="F1810">
+        <v>745.52732</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:6">
+      <c r="A1811" s="2">
+        <v>45537.375</v>
+      </c>
+      <c r="B1811">
+        <v>58056.01</v>
+      </c>
+      <c r="C1811">
+        <v>58141.1</v>
+      </c>
+      <c r="D1811">
+        <v>57901.2</v>
+      </c>
+      <c r="E1811">
+        <v>57983.01</v>
+      </c>
+      <c r="F1811">
+        <v>429.2769</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6">
+      <c r="A1812" s="2">
+        <v>45537.39583333334</v>
+      </c>
+      <c r="B1812">
+        <v>57983</v>
+      </c>
+      <c r="C1812">
+        <v>58462</v>
+      </c>
+      <c r="D1812">
+        <v>57917</v>
+      </c>
+      <c r="E1812">
+        <v>58402.35</v>
+      </c>
+      <c r="F1812">
+        <v>815.54736</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:6">
+      <c r="A1813" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1813">
+        <v>58402</v>
+      </c>
+      <c r="C1813">
+        <v>58586.5</v>
+      </c>
+      <c r="D1813">
+        <v>58293</v>
+      </c>
+      <c r="E1813">
+        <v>58528.52</v>
+      </c>
+      <c r="F1813">
+        <v>722.87764</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:6">
+      <c r="A1814" s="2">
+        <v>45537.4375</v>
+      </c>
+      <c r="B1814">
+        <v>58528.52</v>
+      </c>
+      <c r="C1814">
+        <v>58587</v>
+      </c>
+      <c r="D1814">
+        <v>58362.5</v>
+      </c>
+      <c r="E1814">
+        <v>58498.51</v>
+      </c>
+      <c r="F1814">
+        <v>312.08779</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6">
+      <c r="A1815" s="2">
+        <v>45537.45833333334</v>
+      </c>
+      <c r="B1815">
+        <v>58498.51</v>
+      </c>
+      <c r="C1815">
+        <v>58671.1</v>
+      </c>
+      <c r="D1815">
+        <v>58349.02</v>
+      </c>
+      <c r="E1815">
+        <v>58666.6</v>
+      </c>
+      <c r="F1815">
+        <v>520.67148</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:6">
+      <c r="A1816" s="2">
+        <v>45537.47916666666</v>
+      </c>
+      <c r="B1816">
+        <v>58666.6</v>
+      </c>
+      <c r="C1816">
+        <v>58680.76</v>
+      </c>
+      <c r="D1816">
+        <v>58406</v>
+      </c>
+      <c r="E1816">
+        <v>58406.01</v>
+      </c>
+      <c r="F1816">
+        <v>417.08752</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:6">
+      <c r="A1817" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1817">
+        <v>58422.01</v>
+      </c>
+      <c r="C1817">
+        <v>58509</v>
+      </c>
+      <c r="D1817">
+        <v>58256.1</v>
+      </c>
+      <c r="E1817">
+        <v>58406</v>
+      </c>
+      <c r="F1817">
+        <v>349.7272</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6">
+      <c r="A1818" s="2">
+        <v>45537.52083333334</v>
+      </c>
+      <c r="B1818">
+        <v>58406.01</v>
+      </c>
+      <c r="C1818">
+        <v>58422.56</v>
+      </c>
+      <c r="D1818">
+        <v>58269</v>
+      </c>
+      <c r="E1818">
+        <v>58393.94</v>
+      </c>
+      <c r="F1818">
+        <v>266.74121</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:6">
+      <c r="A1819" s="2">
+        <v>45537.54166666666</v>
+      </c>
+      <c r="B1819">
+        <v>58393.94</v>
+      </c>
+      <c r="C1819">
+        <v>58489</v>
+      </c>
+      <c r="D1819">
+        <v>58234</v>
+      </c>
+      <c r="E1819">
+        <v>58269.39</v>
+      </c>
+      <c r="F1819">
+        <v>291.59248</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:6">
+      <c r="A1820" s="2">
+        <v>45537.5625</v>
+      </c>
+      <c r="B1820">
+        <v>58269.38</v>
+      </c>
+      <c r="C1820">
+        <v>58318.78</v>
+      </c>
+      <c r="D1820">
+        <v>58149.54</v>
+      </c>
+      <c r="E1820">
+        <v>58181.22</v>
+      </c>
+      <c r="F1820">
+        <v>428.64778</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:6">
+      <c r="A1821" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1821">
+        <v>58181.21</v>
+      </c>
+      <c r="C1821">
+        <v>58434</v>
+      </c>
+      <c r="D1821">
+        <v>58104</v>
+      </c>
+      <c r="E1821">
+        <v>58410.33</v>
+      </c>
+      <c r="F1821">
+        <v>560.5137999999999</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:6">
+      <c r="A1822" s="2">
+        <v>45537.60416666666</v>
+      </c>
+      <c r="B1822">
+        <v>58410.33</v>
+      </c>
+      <c r="C1822">
+        <v>58808</v>
+      </c>
+      <c r="D1822">
+        <v>58410.33</v>
+      </c>
+      <c r="E1822">
+        <v>58597</v>
+      </c>
+      <c r="F1822">
+        <v>1404.53398</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:6">
+      <c r="A1823" s="2">
+        <v>45537.625</v>
+      </c>
+      <c r="B1823">
+        <v>58597</v>
+      </c>
+      <c r="C1823">
+        <v>58724</v>
+      </c>
+      <c r="D1823">
+        <v>58480.9</v>
+      </c>
+      <c r="E1823">
+        <v>58548.08</v>
+      </c>
+      <c r="F1823">
+        <v>418.37153</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:6">
+      <c r="A1824" s="2">
+        <v>45537.64583333334</v>
+      </c>
+      <c r="B1824">
+        <v>58548.08</v>
+      </c>
+      <c r="C1824">
+        <v>58741.1</v>
+      </c>
+      <c r="D1824">
+        <v>58532</v>
+      </c>
+      <c r="E1824">
+        <v>58537.99</v>
+      </c>
+      <c r="F1824">
+        <v>303.76137</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:6">
+      <c r="A1825" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1825">
+        <v>58537.99</v>
+      </c>
+      <c r="C1825">
+        <v>58653</v>
+      </c>
+      <c r="D1825">
+        <v>58446</v>
+      </c>
+      <c r="E1825">
+        <v>58457</v>
+      </c>
+      <c r="F1825">
+        <v>220.15008</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:6">
+      <c r="A1826" s="2">
+        <v>45537.6875</v>
+      </c>
+      <c r="B1826">
+        <v>58457</v>
+      </c>
+      <c r="C1826">
+        <v>58515.16</v>
+      </c>
+      <c r="D1826">
+        <v>58293.12</v>
+      </c>
+      <c r="E1826">
+        <v>58345</v>
+      </c>
+      <c r="F1826">
+        <v>314.99826</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6">
+      <c r="A1827" s="2">
+        <v>45537.70833333334</v>
+      </c>
+      <c r="B1827">
+        <v>58345</v>
+      </c>
+      <c r="C1827">
+        <v>58479</v>
+      </c>
+      <c r="D1827">
+        <v>58301</v>
+      </c>
+      <c r="E1827">
+        <v>58451.67</v>
+      </c>
+      <c r="F1827">
+        <v>293.25076</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:6">
+      <c r="A1828" s="2">
+        <v>45537.72916666666</v>
+      </c>
+      <c r="B1828">
+        <v>58451.67</v>
+      </c>
+      <c r="C1828">
+        <v>58558.49</v>
+      </c>
+      <c r="D1828">
+        <v>58389</v>
+      </c>
+      <c r="E1828">
+        <v>58514.01</v>
+      </c>
+      <c r="F1828">
+        <v>460.64829</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:6">
+      <c r="A1829" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1829">
+        <v>58514.01</v>
+      </c>
+      <c r="C1829">
+        <v>58666.64</v>
+      </c>
+      <c r="D1829">
+        <v>58458</v>
+      </c>
+      <c r="E1829">
+        <v>58520</v>
+      </c>
+      <c r="F1829">
+        <v>442.63777</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:6">
+      <c r="A1830" s="2">
+        <v>45537.77083333334</v>
+      </c>
+      <c r="B1830">
+        <v>58519.99</v>
+      </c>
+      <c r="C1830">
+        <v>58558.25</v>
+      </c>
+      <c r="D1830">
+        <v>58318.33</v>
+      </c>
+      <c r="E1830">
+        <v>58486.01</v>
+      </c>
+      <c r="F1830">
+        <v>583.25204</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:6">
+      <c r="A1831" s="2">
+        <v>45537.79166666666</v>
+      </c>
+      <c r="B1831">
+        <v>58486.01</v>
+      </c>
+      <c r="C1831">
+        <v>58559</v>
+      </c>
+      <c r="D1831">
+        <v>58402</v>
+      </c>
+      <c r="E1831">
+        <v>58520.98</v>
+      </c>
+      <c r="F1831">
+        <v>143.12223</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:6">
+      <c r="A1832" s="2">
+        <v>45537.8125</v>
+      </c>
+      <c r="B1832">
+        <v>58520.97</v>
+      </c>
+      <c r="C1832">
+        <v>58538</v>
+      </c>
+      <c r="D1832">
+        <v>58390.39</v>
+      </c>
+      <c r="E1832">
+        <v>58439.99</v>
+      </c>
+      <c r="F1832">
+        <v>398.41297</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6">
+      <c r="A1833" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1833">
+        <v>58440.03</v>
+      </c>
+      <c r="C1833">
+        <v>58574.72</v>
+      </c>
+      <c r="D1833">
+        <v>58384.61</v>
+      </c>
+      <c r="E1833">
+        <v>58520</v>
+      </c>
+      <c r="F1833">
+        <v>183.05562</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:6">
+      <c r="A1834" s="2">
+        <v>45537.85416666666</v>
+      </c>
+      <c r="B1834">
+        <v>58520.01</v>
+      </c>
+      <c r="C1834">
+        <v>59243</v>
+      </c>
+      <c r="D1834">
+        <v>58507</v>
+      </c>
+      <c r="E1834">
+        <v>58992</v>
+      </c>
+      <c r="F1834">
+        <v>1008.51182</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:6">
+      <c r="A1835" s="2">
+        <v>45537.875</v>
+      </c>
+      <c r="B1835">
+        <v>58992.01</v>
+      </c>
+      <c r="C1835">
+        <v>59274</v>
+      </c>
+      <c r="D1835">
+        <v>58992</v>
+      </c>
+      <c r="E1835">
+        <v>59273.99</v>
+      </c>
+      <c r="F1835">
+        <v>943.27014</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:6">
+      <c r="A1836" s="2">
+        <v>45537.89583333334</v>
+      </c>
+      <c r="B1836">
+        <v>59273.99</v>
+      </c>
+      <c r="C1836">
+        <v>59274.32</v>
+      </c>
+      <c r="D1836">
+        <v>58875.03</v>
+      </c>
+      <c r="E1836">
+        <v>59047</v>
+      </c>
+      <c r="F1836">
+        <v>383.41009</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:6">
+      <c r="A1837" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1837">
+        <v>59047</v>
+      </c>
+      <c r="C1837">
+        <v>59220</v>
+      </c>
+      <c r="D1837">
+        <v>59008.81</v>
+      </c>
+      <c r="E1837">
+        <v>59220</v>
+      </c>
+      <c r="F1837">
+        <v>356.71658</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:6">
+      <c r="A1838" s="2">
+        <v>45537.9375</v>
+      </c>
+      <c r="B1838">
+        <v>59220</v>
+      </c>
+      <c r="C1838">
+        <v>59350</v>
+      </c>
+      <c r="D1838">
+        <v>59101.25</v>
+      </c>
+      <c r="E1838">
+        <v>59349.99</v>
+      </c>
+      <c r="F1838">
+        <v>280.89875</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:6">
+      <c r="A1839" s="2">
+        <v>45537.95833333334</v>
+      </c>
+      <c r="B1839">
+        <v>59349.99</v>
+      </c>
+      <c r="C1839">
+        <v>59425.69</v>
+      </c>
+      <c r="D1839">
+        <v>59073</v>
+      </c>
+      <c r="E1839">
+        <v>59088.99</v>
+      </c>
+      <c r="F1839">
+        <v>362.3175</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:6">
+      <c r="A1840" s="2">
+        <v>45537.97916666666</v>
+      </c>
+      <c r="B1840">
+        <v>59089</v>
+      </c>
+      <c r="C1840">
+        <v>59193</v>
+      </c>
+      <c r="D1840">
+        <v>59080.38</v>
+      </c>
+      <c r="E1840">
+        <v>59132.13</v>
+      </c>
+      <c r="F1840">
+        <v>202.65543</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:6">
+      <c r="A1841" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1841">
+        <v>59132.12</v>
+      </c>
+      <c r="C1841">
+        <v>59147.83</v>
+      </c>
+      <c r="D1841">
+        <v>59021.62</v>
+      </c>
+      <c r="E1841">
+        <v>59129.04</v>
+      </c>
+      <c r="F1841">
+        <v>221.00474</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:6">
+      <c r="A1842" s="2">
+        <v>45538.02083333334</v>
+      </c>
+      <c r="B1842">
+        <v>59129.03</v>
+      </c>
+      <c r="C1842">
+        <v>59258</v>
+      </c>
+      <c r="D1842">
+        <v>59049</v>
+      </c>
+      <c r="E1842">
+        <v>59257.99</v>
+      </c>
+      <c r="F1842">
+        <v>281.75169</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:6">
+      <c r="A1843" s="2">
+        <v>45538.04166666666</v>
+      </c>
+      <c r="B1843">
+        <v>59258</v>
+      </c>
+      <c r="C1843">
+        <v>59406.57</v>
+      </c>
+      <c r="D1843">
+        <v>59203</v>
+      </c>
+      <c r="E1843">
+        <v>59262</v>
+      </c>
+      <c r="F1843">
+        <v>294.25382</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:6">
+      <c r="A1844" s="2">
+        <v>45538.0625</v>
+      </c>
+      <c r="B1844">
+        <v>59262</v>
+      </c>
+      <c r="C1844">
+        <v>59403.99</v>
+      </c>
+      <c r="D1844">
+        <v>59195.41</v>
+      </c>
+      <c r="E1844">
+        <v>59388.01</v>
+      </c>
+      <c r="F1844">
+        <v>224.46333</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:6">
+      <c r="A1845" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1845">
+        <v>59388.01</v>
+      </c>
+      <c r="C1845">
+        <v>59809.65</v>
+      </c>
+      <c r="D1845">
+        <v>59347</v>
+      </c>
+      <c r="E1845">
+        <v>59581.1</v>
+      </c>
+      <c r="F1845">
+        <v>1151.50918</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:6">
+      <c r="A1846" s="2">
+        <v>45538.10416666666</v>
+      </c>
+      <c r="B1846">
+        <v>59581.1</v>
+      </c>
+      <c r="C1846">
+        <v>59649</v>
+      </c>
+      <c r="D1846">
+        <v>59300</v>
+      </c>
+      <c r="E1846">
+        <v>59311.01</v>
+      </c>
+      <c r="F1846">
+        <v>471.6722</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:6">
+      <c r="A1847" s="2">
+        <v>45538.125</v>
+      </c>
+      <c r="B1847">
+        <v>59311.01</v>
+      </c>
+      <c r="C1847">
+        <v>59327.71</v>
+      </c>
+      <c r="D1847">
+        <v>59126.65</v>
+      </c>
+      <c r="E1847">
+        <v>59126.65</v>
+      </c>
+      <c r="F1847">
+        <v>275.72518</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:6">
+      <c r="A1848" s="2">
+        <v>45538.14583333334</v>
+      </c>
+      <c r="B1848">
+        <v>59126.66</v>
+      </c>
+      <c r="C1848">
+        <v>59196</v>
+      </c>
+      <c r="D1848">
+        <v>59041.86</v>
+      </c>
+      <c r="E1848">
+        <v>59110.99</v>
+      </c>
+      <c r="F1848">
+        <v>268.35803</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:6">
+      <c r="A1849" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1849">
+        <v>59111</v>
+      </c>
+      <c r="C1849">
+        <v>59178</v>
+      </c>
+      <c r="D1849">
+        <v>59065.93</v>
+      </c>
+      <c r="E1849">
+        <v>59127.97</v>
+      </c>
+      <c r="F1849">
+        <v>240.36425</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:6">
+      <c r="A1850" s="2">
+        <v>45538.1875</v>
+      </c>
+      <c r="B1850">
+        <v>59127.98</v>
+      </c>
+      <c r="C1850">
+        <v>59236</v>
+      </c>
+      <c r="D1850">
+        <v>59003.99</v>
+      </c>
+      <c r="E1850">
+        <v>59099.01</v>
+      </c>
+      <c r="F1850">
+        <v>478.07708</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:6">
+      <c r="A1851" s="2">
+        <v>45538.20833333334</v>
+      </c>
+      <c r="B1851">
+        <v>59099</v>
+      </c>
+      <c r="C1851">
+        <v>59259</v>
+      </c>
+      <c r="D1851">
+        <v>58988</v>
+      </c>
+      <c r="E1851">
+        <v>59238.99</v>
+      </c>
+      <c r="F1851">
+        <v>604.46749</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:6">
+      <c r="A1852" s="2">
+        <v>45538.22916666666</v>
+      </c>
+      <c r="B1852">
+        <v>59238.99</v>
+      </c>
+      <c r="C1852">
+        <v>59246</v>
+      </c>
+      <c r="D1852">
+        <v>59145</v>
+      </c>
+      <c r="E1852">
+        <v>59186</v>
+      </c>
+      <c r="F1852">
+        <v>177.66343</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:6">
+      <c r="A1853" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1853">
+        <v>59186</v>
+      </c>
+      <c r="C1853">
+        <v>59186</v>
+      </c>
+      <c r="D1853">
+        <v>58872</v>
+      </c>
+      <c r="E1853">
+        <v>58982.01</v>
+      </c>
+      <c r="F1853">
+        <v>502.03732</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:6">
+      <c r="A1854" s="2">
+        <v>45538.27083333334</v>
+      </c>
+      <c r="B1854">
+        <v>58982.01</v>
+      </c>
+      <c r="C1854">
+        <v>59024</v>
+      </c>
+      <c r="D1854">
+        <v>58873.91</v>
+      </c>
+      <c r="E1854">
+        <v>58891</v>
+      </c>
+      <c r="F1854">
+        <v>241.99539</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:6">
+      <c r="A1855" s="2">
+        <v>45538.29166666666</v>
+      </c>
+      <c r="B1855">
+        <v>58891.01</v>
+      </c>
+      <c r="C1855">
+        <v>59000</v>
+      </c>
+      <c r="D1855">
+        <v>58880.57</v>
+      </c>
+      <c r="E1855">
+        <v>58955.01</v>
+      </c>
+      <c r="F1855">
+        <v>294.00318</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:6">
+      <c r="A1856" s="2">
+        <v>45538.3125</v>
+      </c>
+      <c r="B1856">
+        <v>58955</v>
+      </c>
+      <c r="C1856">
+        <v>59140.35</v>
+      </c>
+      <c r="D1856">
+        <v>58955</v>
+      </c>
+      <c r="E1856">
+        <v>59112</v>
+      </c>
+      <c r="F1856">
+        <v>247.94224</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:6">
+      <c r="A1857" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1857">
+        <v>59112.01</v>
+      </c>
+      <c r="C1857">
+        <v>59136.58</v>
+      </c>
+      <c r="D1857">
+        <v>59025</v>
+      </c>
+      <c r="E1857">
+        <v>59031.35</v>
+      </c>
+      <c r="F1857">
+        <v>335.95279</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:6">
+      <c r="A1858" s="2">
+        <v>45538.35416666666</v>
+      </c>
+      <c r="B1858">
+        <v>59031.35</v>
+      </c>
+      <c r="C1858">
+        <v>59031.36</v>
+      </c>
+      <c r="D1858">
+        <v>58717</v>
+      </c>
+      <c r="E1858">
+        <v>58789.02</v>
+      </c>
+      <c r="F1858">
+        <v>521.01415</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:6">
+      <c r="A1859" s="2">
+        <v>45538.375</v>
+      </c>
+      <c r="B1859">
+        <v>58789.01</v>
+      </c>
+      <c r="C1859">
+        <v>58930.01</v>
+      </c>
+      <c r="D1859">
+        <v>58783</v>
+      </c>
+      <c r="E1859">
+        <v>58876.01</v>
+      </c>
+      <c r="F1859">
+        <v>428.87808</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:6">
+      <c r="A1860" s="2">
+        <v>45538.39583333334</v>
+      </c>
+      <c r="B1860">
+        <v>58876.01</v>
+      </c>
+      <c r="C1860">
+        <v>58961.5</v>
+      </c>
+      <c r="D1860">
+        <v>58846</v>
+      </c>
+      <c r="E1860">
+        <v>58874</v>
+      </c>
+      <c r="F1860">
+        <v>189.07985</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:6">
+      <c r="A1861" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1861">
+        <v>58874.01</v>
+      </c>
+      <c r="C1861">
+        <v>59195.63</v>
+      </c>
+      <c r="D1861">
+        <v>58836.87</v>
+      </c>
+      <c r="E1861">
+        <v>59181</v>
+      </c>
+      <c r="F1861">
+        <v>328.35366</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:6">
+      <c r="A1862" s="2">
+        <v>45538.4375</v>
+      </c>
+      <c r="B1862">
+        <v>59180.99</v>
+      </c>
+      <c r="C1862">
+        <v>59185</v>
+      </c>
+      <c r="D1862">
+        <v>58950</v>
+      </c>
+      <c r="E1862">
+        <v>59078.94</v>
+      </c>
+      <c r="F1862">
+        <v>246.91412</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:6">
+      <c r="A1863" s="2">
+        <v>45538.45833333334</v>
+      </c>
+      <c r="B1863">
+        <v>59078.94</v>
+      </c>
+      <c r="C1863">
+        <v>59104.04</v>
+      </c>
+      <c r="D1863">
+        <v>58951</v>
+      </c>
+      <c r="E1863">
+        <v>59053.99</v>
+      </c>
+      <c r="F1863">
+        <v>208.82904</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:6">
+      <c r="A1864" s="2">
+        <v>45538.47916666666</v>
+      </c>
+      <c r="B1864">
+        <v>59053.99</v>
+      </c>
+      <c r="C1864">
+        <v>59106.01</v>
+      </c>
+      <c r="D1864">
+        <v>58981</v>
+      </c>
+      <c r="E1864">
+        <v>59072</v>
+      </c>
+      <c r="F1864">
+        <v>175.03526</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:6">
+      <c r="A1865" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1865">
+        <v>59072.01</v>
+      </c>
+      <c r="C1865">
+        <v>59254.81</v>
+      </c>
+      <c r="D1865">
+        <v>59057.34</v>
+      </c>
+      <c r="E1865">
+        <v>59218.98</v>
+      </c>
+      <c r="F1865">
+        <v>303.57677</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:6">
+      <c r="A1866" s="2">
+        <v>45538.52083333334</v>
+      </c>
+      <c r="B1866">
+        <v>59218.98</v>
+      </c>
+      <c r="C1866">
+        <v>59350</v>
+      </c>
+      <c r="D1866">
+        <v>59135</v>
+      </c>
+      <c r="E1866">
+        <v>59135.01</v>
+      </c>
+      <c r="F1866">
+        <v>389.26672</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:6">
+      <c r="A1867" s="2">
+        <v>45538.54166666666</v>
+      </c>
+      <c r="B1867">
+        <v>59135.01</v>
+      </c>
+      <c r="C1867">
+        <v>59320.14</v>
+      </c>
+      <c r="D1867">
+        <v>59101</v>
+      </c>
+      <c r="E1867">
+        <v>59122.58</v>
+      </c>
+      <c r="F1867">
+        <v>344.85597</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:6">
+      <c r="A1868" s="2">
+        <v>45538.5625</v>
+      </c>
+      <c r="B1868">
+        <v>59122.59</v>
+      </c>
+      <c r="C1868">
+        <v>59139.98</v>
+      </c>
+      <c r="D1868">
+        <v>58198.28</v>
+      </c>
+      <c r="E1868">
+        <v>58398.99</v>
+      </c>
+      <c r="F1868">
+        <v>2151.62708</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:6">
+      <c r="A1869" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1869">
+        <v>58398.99</v>
+      </c>
+      <c r="C1869">
+        <v>58398.99</v>
+      </c>
+      <c r="D1869">
+        <v>57761.1</v>
+      </c>
+      <c r="E1869">
+        <v>58043</v>
+      </c>
+      <c r="F1869">
+        <v>2481.91728</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:6">
+      <c r="A1870" s="2">
+        <v>45538.60416666666</v>
+      </c>
+      <c r="B1870">
+        <v>58043</v>
+      </c>
+      <c r="C1870">
+        <v>58043.01</v>
+      </c>
+      <c r="D1870">
+        <v>57568</v>
+      </c>
+      <c r="E1870">
+        <v>57672.84</v>
+      </c>
+      <c r="F1870">
+        <v>1299.09568</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:6">
+      <c r="A1871" s="2">
+        <v>45538.625</v>
+      </c>
+      <c r="B1871">
+        <v>57672.84</v>
+      </c>
+      <c r="C1871">
+        <v>58018</v>
+      </c>
+      <c r="D1871">
+        <v>57630</v>
+      </c>
+      <c r="E1871">
+        <v>57784</v>
+      </c>
+      <c r="F1871">
+        <v>739.46189</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:6">
+      <c r="A1872" s="2">
+        <v>45538.64583333334</v>
+      </c>
+      <c r="B1872">
+        <v>57784.01</v>
+      </c>
+      <c r="C1872">
+        <v>57897</v>
+      </c>
+      <c r="D1872">
+        <v>57632.03</v>
+      </c>
+      <c r="E1872">
+        <v>57725</v>
+      </c>
+      <c r="F1872">
+        <v>480.26277</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:6">
+      <c r="A1873" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1873">
+        <v>57725.01</v>
+      </c>
+      <c r="C1873">
+        <v>57924</v>
+      </c>
+      <c r="D1873">
+        <v>57683.98</v>
+      </c>
+      <c r="E1873">
+        <v>57737.99</v>
+      </c>
+      <c r="F1873">
+        <v>522.17024</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:6">
+      <c r="A1874" s="2">
+        <v>45538.6875</v>
+      </c>
+      <c r="B1874">
+        <v>57737.99</v>
+      </c>
+      <c r="C1874">
+        <v>57830</v>
+      </c>
+      <c r="D1874">
+        <v>57655.81</v>
+      </c>
+      <c r="E1874">
+        <v>57708</v>
+      </c>
+      <c r="F1874">
+        <v>590.2080099999999</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:6">
+      <c r="A1875" s="2">
+        <v>45538.70833333334</v>
+      </c>
+      <c r="B1875">
+        <v>57707.99</v>
+      </c>
+      <c r="C1875">
+        <v>58034</v>
+      </c>
+      <c r="D1875">
+        <v>57680</v>
+      </c>
+      <c r="E1875">
+        <v>58028</v>
+      </c>
+      <c r="F1875">
+        <v>347.43145</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:6">
+      <c r="A1876" s="2">
+        <v>45538.72916666666</v>
+      </c>
+      <c r="B1876">
+        <v>58028</v>
+      </c>
+      <c r="C1876">
+        <v>58100</v>
+      </c>
+      <c r="D1876">
+        <v>57693.87</v>
+      </c>
+      <c r="E1876">
+        <v>57698</v>
+      </c>
+      <c r="F1876">
+        <v>538.46313</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:6">
+      <c r="A1877" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1877">
+        <v>57698</v>
+      </c>
+      <c r="C1877">
+        <v>57945.93</v>
+      </c>
+      <c r="D1877">
+        <v>57589.01</v>
+      </c>
+      <c r="E1877">
+        <v>57897.95</v>
+      </c>
+      <c r="F1877">
+        <v>535.4647200000001</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:6">
+      <c r="A1878" s="2">
+        <v>45538.77083333334</v>
+      </c>
+      <c r="B1878">
+        <v>57897.95</v>
+      </c>
+      <c r="C1878">
+        <v>58055</v>
+      </c>
+      <c r="D1878">
+        <v>57886</v>
+      </c>
+      <c r="E1878">
+        <v>57926</v>
+      </c>
+      <c r="F1878">
+        <v>379.5916</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:6">
+      <c r="A1879" s="2">
+        <v>45538.79166666666</v>
+      </c>
+      <c r="B1879">
+        <v>57925.99</v>
+      </c>
+      <c r="C1879">
+        <v>58251.09</v>
+      </c>
+      <c r="D1879">
+        <v>57912.01</v>
+      </c>
+      <c r="E1879">
+        <v>58004</v>
+      </c>
+      <c r="F1879">
+        <v>409.92597</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:6">
+      <c r="A1880" s="2">
+        <v>45538.8125</v>
+      </c>
+      <c r="B1880">
+        <v>58004.01</v>
+      </c>
+      <c r="C1880">
+        <v>58102.05</v>
+      </c>
+      <c r="D1880">
+        <v>57852</v>
+      </c>
+      <c r="E1880">
+        <v>58046</v>
+      </c>
+      <c r="F1880">
+        <v>423.15638</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:6">
+      <c r="A1881" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1881">
+        <v>58045.99</v>
+      </c>
+      <c r="C1881">
+        <v>58247</v>
+      </c>
+      <c r="D1881">
+        <v>58045.99</v>
+      </c>
+      <c r="E1881">
+        <v>58146</v>
+      </c>
+      <c r="F1881">
+        <v>260.38271</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:6">
+      <c r="A1882" s="2">
+        <v>45538.85416666666</v>
+      </c>
+      <c r="B1882">
+        <v>58146</v>
+      </c>
+      <c r="C1882">
+        <v>58234.79</v>
+      </c>
+      <c r="D1882">
+        <v>58066</v>
+      </c>
+      <c r="E1882">
+        <v>58228</v>
+      </c>
+      <c r="F1882">
+        <v>326.83686</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:6">
+      <c r="A1883" s="2">
+        <v>45538.875</v>
+      </c>
+      <c r="B1883">
+        <v>58228.01</v>
+      </c>
+      <c r="C1883">
+        <v>58238</v>
+      </c>
+      <c r="D1883">
+        <v>57957.5</v>
+      </c>
+      <c r="E1883">
+        <v>57997.27</v>
+      </c>
+      <c r="F1883">
+        <v>259.90419</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:6">
+      <c r="A1884" s="2">
+        <v>45538.89583333334</v>
+      </c>
+      <c r="B1884">
+        <v>57997.28</v>
+      </c>
+      <c r="C1884">
+        <v>58141</v>
+      </c>
+      <c r="D1884">
+        <v>57969.86</v>
+      </c>
+      <c r="E1884">
+        <v>58134.61</v>
+      </c>
+      <c r="F1884">
+        <v>211.72806</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:6">
+      <c r="A1885" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1885">
+        <v>58134.61</v>
+      </c>
+      <c r="C1885">
+        <v>58183.68</v>
+      </c>
+      <c r="D1885">
+        <v>57932</v>
+      </c>
+      <c r="E1885">
+        <v>57965.01</v>
+      </c>
+      <c r="F1885">
+        <v>377.00359</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:6">
+      <c r="A1886" s="2">
+        <v>45538.9375</v>
+      </c>
+      <c r="B1886">
+        <v>57965.01</v>
+      </c>
+      <c r="C1886">
+        <v>57985</v>
+      </c>
+      <c r="D1886">
+        <v>57863.99</v>
+      </c>
+      <c r="E1886">
+        <v>57865</v>
+      </c>
+      <c r="F1886">
+        <v>118.39882</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:6">
+      <c r="A1887" s="2">
+        <v>45538.95833333334</v>
+      </c>
+      <c r="B1887">
+        <v>57865</v>
+      </c>
+      <c r="C1887">
+        <v>57899</v>
+      </c>
+      <c r="D1887">
+        <v>57663</v>
+      </c>
+      <c r="E1887">
+        <v>57663</v>
+      </c>
+      <c r="F1887">
+        <v>323.97195</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:6">
+      <c r="A1888" s="2">
+        <v>45538.97916666666</v>
+      </c>
+      <c r="B1888">
+        <v>57663.01</v>
+      </c>
+      <c r="C1888">
+        <v>57744</v>
+      </c>
+      <c r="D1888">
+        <v>57415</v>
+      </c>
+      <c r="E1888">
+        <v>57487.73</v>
+      </c>
+      <c r="F1888">
+        <v>604.13713</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:6">
+      <c r="A1889" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1889">
+        <v>57487.74</v>
+      </c>
+      <c r="C1889">
+        <v>57943.53</v>
+      </c>
+      <c r="D1889">
+        <v>57467</v>
+      </c>
+      <c r="E1889">
+        <v>57808.01</v>
+      </c>
+      <c r="F1889">
+        <v>521.80488</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:6">
+      <c r="A1890" s="2">
+        <v>45539.02083333334</v>
+      </c>
+      <c r="B1890">
+        <v>57808.01</v>
+      </c>
+      <c r="C1890">
+        <v>57918</v>
+      </c>
+      <c r="D1890">
+        <v>57100</v>
+      </c>
+      <c r="E1890">
+        <v>57140.02</v>
+      </c>
+      <c r="F1890">
+        <v>954.65</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:6">
+      <c r="A1891" s="2">
+        <v>45539.04166666666</v>
+      </c>
+      <c r="B1891">
+        <v>57140.02</v>
+      </c>
+      <c r="C1891">
+        <v>57161.06</v>
+      </c>
+      <c r="D1891">
+        <v>55606</v>
+      </c>
+      <c r="E1891">
+        <v>56419.98</v>
+      </c>
+      <c r="F1891">
+        <v>5474.89981</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:6">
+      <c r="A1892" s="2">
+        <v>45539.0625</v>
+      </c>
+      <c r="B1892">
+        <v>56419.98</v>
+      </c>
+      <c r="C1892">
+        <v>56923.65</v>
+      </c>
+      <c r="D1892">
+        <v>56367</v>
+      </c>
+      <c r="E1892">
+        <v>56784.01</v>
+      </c>
+      <c r="F1892">
+        <v>1032.64652</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:6">
+      <c r="A1893" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1893">
+        <v>56784.01</v>
+      </c>
+      <c r="C1893">
+        <v>56823</v>
+      </c>
+      <c r="D1893">
+        <v>56520.35</v>
+      </c>
+      <c r="E1893">
+        <v>56610.01</v>
+      </c>
+      <c r="F1893">
+        <v>576.22663</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:6">
+      <c r="A1894" s="2">
+        <v>45539.10416666666</v>
+      </c>
+      <c r="B1894">
+        <v>56610.01</v>
+      </c>
+      <c r="C1894">
+        <v>56767</v>
+      </c>
+      <c r="D1894">
+        <v>56610</v>
+      </c>
+      <c r="E1894">
+        <v>56648.01</v>
+      </c>
+      <c r="F1894">
+        <v>555.0630200000001</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:6">
+      <c r="A1895" s="2">
+        <v>45539.125</v>
+      </c>
+      <c r="B1895">
+        <v>56648.01</v>
+      </c>
+      <c r="C1895">
+        <v>56821</v>
+      </c>
+      <c r="D1895">
+        <v>56618</v>
+      </c>
+      <c r="E1895">
+        <v>56820</v>
+      </c>
+      <c r="F1895">
+        <v>291.65606</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:6">
+      <c r="A1896" s="2">
+        <v>45539.14583333334</v>
+      </c>
+      <c r="B1896">
+        <v>56819.99</v>
+      </c>
+      <c r="C1896">
+        <v>56850</v>
+      </c>
+      <c r="D1896">
+        <v>56622.77</v>
+      </c>
+      <c r="E1896">
+        <v>56653.98</v>
+      </c>
+      <c r="F1896">
+        <v>601.59898</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:6">
+      <c r="A1897" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1897">
+        <v>56653.99</v>
+      </c>
+      <c r="C1897">
+        <v>56700</v>
+      </c>
+      <c r="D1897">
+        <v>56559.15</v>
+      </c>
+      <c r="E1897">
+        <v>56568.55</v>
+      </c>
+      <c r="F1897">
+        <v>315.23532</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:6">
+      <c r="A1898" s="2">
+        <v>45539.1875</v>
+      </c>
+      <c r="B1898">
+        <v>56568.55</v>
+      </c>
+      <c r="C1898">
+        <v>56728</v>
+      </c>
+      <c r="D1898">
+        <v>56568</v>
+      </c>
+      <c r="E1898">
+        <v>56694</v>
+      </c>
+      <c r="F1898">
+        <v>202.75629</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:6">
+      <c r="A1899" s="2">
+        <v>45539.20833333334</v>
+      </c>
+      <c r="B1899">
+        <v>56694</v>
+      </c>
+      <c r="C1899">
+        <v>56694</v>
+      </c>
+      <c r="D1899">
+        <v>56458.5</v>
+      </c>
+      <c r="E1899">
+        <v>56500</v>
+      </c>
+      <c r="F1899">
+        <v>481.0477</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:6">
+      <c r="A1900" s="2">
+        <v>45539.22916666666</v>
+      </c>
+      <c r="B1900">
+        <v>56500</v>
+      </c>
+      <c r="C1900">
+        <v>56511</v>
+      </c>
+      <c r="D1900">
+        <v>56201</v>
+      </c>
+      <c r="E1900">
+        <v>56252.01</v>
+      </c>
+      <c r="F1900">
+        <v>1039.44033</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:6">
+      <c r="A1901" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1901">
+        <v>56252.01</v>
+      </c>
+      <c r="C1901">
+        <v>56530.01</v>
+      </c>
+      <c r="D1901">
+        <v>56209.99</v>
+      </c>
+      <c r="E1901">
+        <v>56496.16</v>
+      </c>
+      <c r="F1901">
+        <v>1120.62408</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:6">
+      <c r="A1902" s="2">
+        <v>45539.27083333334</v>
+      </c>
+      <c r="B1902">
+        <v>56496.16</v>
+      </c>
+      <c r="C1902">
+        <v>56528</v>
+      </c>
+      <c r="D1902">
+        <v>56246.07</v>
+      </c>
+      <c r="E1902">
+        <v>56277</v>
+      </c>
+      <c r="F1902">
+        <v>897.48631</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:6">
+      <c r="A1903" s="2">
+        <v>45539.29166666666</v>
+      </c>
+      <c r="B1903">
+        <v>56277</v>
+      </c>
+      <c r="C1903">
+        <v>56641.15</v>
+      </c>
+      <c r="D1903">
+        <v>56253</v>
+      </c>
+      <c r="E1903">
+        <v>56517</v>
+      </c>
+      <c r="F1903">
+        <v>1001.0041</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:6">
+      <c r="A1904" s="2">
+        <v>45539.3125</v>
+      </c>
+      <c r="B1904">
+        <v>56517.01</v>
+      </c>
+      <c r="C1904">
+        <v>56881</v>
+      </c>
+      <c r="D1904">
+        <v>56502</v>
+      </c>
+      <c r="E1904">
+        <v>56746</v>
+      </c>
+      <c r="F1904">
+        <v>512.50988</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:6">
+      <c r="A1905" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1905">
+        <v>56746</v>
+      </c>
+      <c r="C1905">
+        <v>56848</v>
+      </c>
+      <c r="D1905">
+        <v>56668.28</v>
+      </c>
+      <c r="E1905">
+        <v>56848</v>
+      </c>
+      <c r="F1905">
+        <v>317.79527</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:6">
+      <c r="A1906" s="2">
+        <v>45539.35416666666</v>
+      </c>
+      <c r="B1906">
+        <v>56847.99</v>
+      </c>
+      <c r="C1906">
+        <v>56909.94</v>
+      </c>
+      <c r="D1906">
+        <v>56704</v>
+      </c>
+      <c r="E1906">
+        <v>56783.01</v>
+      </c>
+      <c r="F1906">
+        <v>422.21766</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:6">
+      <c r="A1907" s="2">
+        <v>45539.375</v>
+      </c>
+      <c r="B1907">
+        <v>56783.01</v>
+      </c>
+      <c r="C1907">
+        <v>56855</v>
+      </c>
+      <c r="D1907">
+        <v>56667.02</v>
+      </c>
+      <c r="E1907">
+        <v>56736.75</v>
+      </c>
+      <c r="F1907">
+        <v>285.78491</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:6">
+      <c r="A1908" s="2">
+        <v>45539.39583333334</v>
+      </c>
+      <c r="B1908">
+        <v>56736.75</v>
+      </c>
+      <c r="C1908">
+        <v>56800</v>
+      </c>
+      <c r="D1908">
+        <v>56570</v>
+      </c>
+      <c r="E1908">
+        <v>56596.99</v>
+      </c>
+      <c r="F1908">
+        <v>568.1136</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:6">
+      <c r="A1909" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1909">
+        <v>56596.99</v>
+      </c>
+      <c r="C1909">
+        <v>56661</v>
+      </c>
+      <c r="D1909">
+        <v>56453</v>
+      </c>
+      <c r="E1909">
+        <v>56618.99</v>
+      </c>
+      <c r="F1909">
+        <v>435.95448</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:6">
+      <c r="A1910" s="2">
+        <v>45539.4375</v>
+      </c>
+      <c r="B1910">
+        <v>56619</v>
+      </c>
+      <c r="C1910">
+        <v>56710.47</v>
+      </c>
+      <c r="D1910">
+        <v>56455.98</v>
+      </c>
+      <c r="E1910">
+        <v>56456.45</v>
+      </c>
+      <c r="F1910">
+        <v>442.47499</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:6">
+      <c r="A1911" s="2">
+        <v>45539.45833333334</v>
+      </c>
+      <c r="B1911">
+        <v>56456.46</v>
+      </c>
+      <c r="C1911">
+        <v>56580</v>
+      </c>
+      <c r="D1911">
+        <v>56454.73</v>
+      </c>
+      <c r="E1911">
+        <v>56530.01</v>
+      </c>
+      <c r="F1911">
+        <v>233.88228</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:6">
+      <c r="A1912" s="2">
+        <v>45539.47916666666</v>
+      </c>
+      <c r="B1912">
+        <v>56530</v>
+      </c>
+      <c r="C1912">
+        <v>56682.32</v>
+      </c>
+      <c r="D1912">
+        <v>56527</v>
+      </c>
+      <c r="E1912">
+        <v>56573</v>
+      </c>
+      <c r="F1912">
+        <v>306.62955</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:6">
+      <c r="A1913" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1913">
+        <v>56573</v>
+      </c>
+      <c r="C1913">
+        <v>56674.69</v>
+      </c>
+      <c r="D1913">
+        <v>56479.95</v>
+      </c>
+      <c r="E1913">
+        <v>56631.09</v>
+      </c>
+      <c r="F1913">
+        <v>390.20867</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:6">
+      <c r="A1914" s="2">
+        <v>45539.52083333334</v>
+      </c>
+      <c r="B1914">
+        <v>56631.1</v>
+      </c>
+      <c r="C1914">
+        <v>56763.99</v>
+      </c>
+      <c r="D1914">
+        <v>56521.1</v>
+      </c>
+      <c r="E1914">
+        <v>56599.99</v>
+      </c>
+      <c r="F1914">
+        <v>386.06072</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:6">
+      <c r="A1915" s="2">
+        <v>45539.54166666666</v>
+      </c>
+      <c r="B1915">
+        <v>56600</v>
+      </c>
+      <c r="C1915">
+        <v>56637</v>
+      </c>
+      <c r="D1915">
+        <v>56468.93</v>
+      </c>
+      <c r="E1915">
+        <v>56487.99</v>
+      </c>
+      <c r="F1915">
+        <v>346.68241</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:6">
+      <c r="A1916" s="2">
+        <v>45539.5625</v>
+      </c>
+      <c r="B1916">
+        <v>56487.99</v>
+      </c>
+      <c r="C1916">
+        <v>56700</v>
+      </c>
+      <c r="D1916">
+        <v>56319.41</v>
+      </c>
+      <c r="E1916">
+        <v>56490</v>
+      </c>
+      <c r="F1916">
+        <v>1099.35169</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:6">
+      <c r="A1917" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1917">
+        <v>56489.99</v>
+      </c>
+      <c r="C1917">
+        <v>56742</v>
+      </c>
+      <c r="D1917">
+        <v>56187.61</v>
+      </c>
+      <c r="E1917">
+        <v>56445</v>
+      </c>
+      <c r="F1917">
+        <v>1563.06964</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:6">
+      <c r="A1918" s="2">
+        <v>45539.60416666666</v>
+      </c>
+      <c r="B1918">
+        <v>56445</v>
+      </c>
+      <c r="C1918">
+        <v>57581.4</v>
+      </c>
+      <c r="D1918">
+        <v>56409</v>
+      </c>
+      <c r="E1918">
+        <v>57511.1</v>
+      </c>
+      <c r="F1918">
+        <v>2286.58917</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:6">
+      <c r="A1919" s="2">
+        <v>45539.625</v>
+      </c>
+      <c r="B1919">
+        <v>57511.11</v>
+      </c>
+      <c r="C1919">
+        <v>57768</v>
+      </c>
+      <c r="D1919">
+        <v>57365</v>
+      </c>
+      <c r="E1919">
+        <v>57419.85</v>
+      </c>
+      <c r="F1919">
+        <v>1570.9637</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:6">
+      <c r="A1920" s="2">
+        <v>45539.64583333334</v>
+      </c>
+      <c r="B1920">
+        <v>57419.84</v>
+      </c>
+      <c r="C1920">
+        <v>58181.43</v>
+      </c>
+      <c r="D1920">
+        <v>57368</v>
+      </c>
+      <c r="E1920">
+        <v>58134</v>
+      </c>
+      <c r="F1920">
+        <v>2261.01603</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:6">
+      <c r="A1921" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1921">
+        <v>58134</v>
+      </c>
+      <c r="C1921">
+        <v>58478.49</v>
+      </c>
+      <c r="D1921">
+        <v>58121.1</v>
+      </c>
+      <c r="E1921">
+        <v>58281.1</v>
+      </c>
+      <c r="F1921">
+        <v>1407.33045</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:6">
+      <c r="A1922" s="2">
+        <v>45539.6875</v>
+      </c>
+      <c r="B1922">
+        <v>58281.1</v>
+      </c>
+      <c r="C1922">
+        <v>58519</v>
+      </c>
+      <c r="D1922">
+        <v>58228</v>
+      </c>
+      <c r="E1922">
+        <v>58406.07</v>
+      </c>
+      <c r="F1922">
+        <v>956.3036</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:6">
+      <c r="A1923" s="2">
+        <v>45539.70833333334</v>
+      </c>
+      <c r="B1923">
+        <v>58406.06</v>
+      </c>
+      <c r="C1923">
+        <v>58472</v>
+      </c>
+      <c r="D1923">
+        <v>57963</v>
+      </c>
+      <c r="E1923">
+        <v>57963</v>
+      </c>
+      <c r="F1923">
+        <v>812.34485</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:6">
+      <c r="A1924" s="2">
+        <v>45539.72916666666</v>
+      </c>
+      <c r="B1924">
+        <v>57963</v>
+      </c>
+      <c r="C1924">
+        <v>58074.32</v>
+      </c>
+      <c r="D1924">
+        <v>57821.79</v>
+      </c>
+      <c r="E1924">
+        <v>57878</v>
+      </c>
+      <c r="F1924">
+        <v>553.60653</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:6">
+      <c r="A1925" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1925">
+        <v>57878.01</v>
+      </c>
+      <c r="C1925">
+        <v>57997.99</v>
+      </c>
+      <c r="D1925">
+        <v>57778</v>
+      </c>
+      <c r="E1925">
+        <v>57897.99</v>
+      </c>
+      <c r="F1925">
+        <v>409.16675</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:6">
+      <c r="A1926" s="2">
+        <v>45539.77083333334</v>
+      </c>
+      <c r="B1926">
+        <v>57897.99</v>
+      </c>
+      <c r="C1926">
+        <v>57978</v>
+      </c>
+      <c r="D1926">
+        <v>57646</v>
+      </c>
+      <c r="E1926">
+        <v>57684.01</v>
+      </c>
+      <c r="F1926">
+        <v>396.4187</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:6">
+      <c r="A1927" s="2">
+        <v>45539.79166666666</v>
+      </c>
+      <c r="B1927">
+        <v>57684.01</v>
+      </c>
+      <c r="C1927">
+        <v>57944</v>
+      </c>
+      <c r="D1927">
+        <v>57662</v>
+      </c>
+      <c r="E1927">
+        <v>57934.01</v>
+      </c>
+      <c r="F1927">
+        <v>357.46067</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:6">
+      <c r="A1928" s="2">
+        <v>45539.8125</v>
+      </c>
+      <c r="B1928">
+        <v>57934</v>
+      </c>
+      <c r="C1928">
+        <v>57968.75</v>
+      </c>
+      <c r="D1928">
+        <v>57804</v>
+      </c>
+      <c r="E1928">
+        <v>57968.75</v>
+      </c>
+      <c r="F1928">
+        <v>131.32573</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:6">
+      <c r="A1929" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1929">
+        <v>58058</v>
+      </c>
+      <c r="C1929">
+        <v>58181</v>
+      </c>
+      <c r="D1929">
+        <v>57908</v>
+      </c>
+      <c r="E1929">
+        <v>57920.83</v>
+      </c>
+      <c r="F1929">
+        <v>284.52602</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:6">
+      <c r="A1930" s="2">
+        <v>45539.85416666666</v>
+      </c>
+      <c r="B1930">
+        <v>57920.83</v>
+      </c>
+      <c r="C1930">
+        <v>58117</v>
+      </c>
+      <c r="D1930">
+        <v>57792.46</v>
+      </c>
+      <c r="E1930">
+        <v>58048.01</v>
+      </c>
+      <c r="F1930">
+        <v>314.37896</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:6">
+      <c r="A1931" s="2">
+        <v>45539.875</v>
+      </c>
+      <c r="B1931">
+        <v>58048</v>
+      </c>
+      <c r="C1931">
+        <v>58086</v>
+      </c>
+      <c r="D1931">
+        <v>57948</v>
+      </c>
+      <c r="E1931">
+        <v>58005</v>
+      </c>
+      <c r="F1931">
+        <v>171.8724</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:6">
+      <c r="A1932" s="2">
+        <v>45539.89583333334</v>
+      </c>
+      <c r="B1932">
+        <v>58005.01</v>
+      </c>
+      <c r="C1932">
+        <v>58120</v>
+      </c>
+      <c r="D1932">
+        <v>57982</v>
+      </c>
+      <c r="E1932">
+        <v>58100</v>
+      </c>
+      <c r="F1932">
+        <v>128.41187</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:6">
+      <c r="A1933" s="2">
+        <v>45539.91666666666</v>
+      </c>
+      <c r="B1933">
+        <v>58100</v>
+      </c>
+      <c r="C1933">
+        <v>58390</v>
+      </c>
+      <c r="D1933">
+        <v>58078</v>
+      </c>
+      <c r="E1933">
+        <v>58108.33</v>
+      </c>
+      <c r="F1933">
+        <v>311.75241</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:6">
+      <c r="A1934" s="2">
+        <v>45539.9375</v>
+      </c>
+      <c r="B1934">
+        <v>58108.32</v>
+      </c>
+      <c r="C1934">
+        <v>58208</v>
+      </c>
+      <c r="D1934">
+        <v>58041.1</v>
+      </c>
+      <c r="E1934">
+        <v>58130.99</v>
+      </c>
+      <c r="F1934">
+        <v>153.5436</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:6">
+      <c r="A1935" s="2">
+        <v>45539.95833333334</v>
+      </c>
+      <c r="B1935">
+        <v>58130.98</v>
+      </c>
+      <c r="C1935">
+        <v>58232</v>
+      </c>
+      <c r="D1935">
+        <v>58072</v>
+      </c>
+      <c r="E1935">
+        <v>58079</v>
+      </c>
+      <c r="F1935">
+        <v>163.98795</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:6">
+      <c r="A1936" s="2">
+        <v>45539.97916666666</v>
+      </c>
+      <c r="B1936">
+        <v>58079</v>
+      </c>
+      <c r="C1936">
+        <v>58120</v>
+      </c>
+      <c r="D1936">
+        <v>57889.81</v>
+      </c>
+      <c r="E1936">
+        <v>57970.9</v>
+      </c>
+      <c r="F1936">
+        <v>252.1711</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:6">
+      <c r="A1937" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1937">
+        <v>57970.9</v>
+      </c>
+      <c r="C1937">
+        <v>58327.07</v>
+      </c>
+      <c r="D1937">
+        <v>57964</v>
+      </c>
+      <c r="E1937">
+        <v>58250</v>
+      </c>
+      <c r="F1937">
+        <v>318.53343</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:6">
+      <c r="A1938" s="2">
+        <v>45540.02083333334</v>
+      </c>
+      <c r="B1938">
+        <v>58250</v>
+      </c>
+      <c r="C1938">
+        <v>58250</v>
+      </c>
+      <c r="D1938">
+        <v>57996.01</v>
+      </c>
+      <c r="E1938">
+        <v>57997.75</v>
+      </c>
+      <c r="F1938">
+        <v>616.90493</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:6">
+      <c r="A1939" s="2">
+        <v>45540.04166666666</v>
+      </c>
+      <c r="B1939">
+        <v>57997.75</v>
+      </c>
+      <c r="C1939">
+        <v>58131.1</v>
+      </c>
+      <c r="D1939">
+        <v>57955.55</v>
+      </c>
+      <c r="E1939">
+        <v>58126.89</v>
+      </c>
+      <c r="F1939">
+        <v>231.90794</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:6">
+      <c r="A1940" s="2">
+        <v>45540.0625</v>
+      </c>
+      <c r="B1940">
+        <v>58126.89</v>
+      </c>
+      <c r="C1940">
+        <v>58249</v>
+      </c>
+      <c r="D1940">
+        <v>57991.1</v>
+      </c>
+      <c r="E1940">
+        <v>58021.99</v>
+      </c>
+      <c r="F1940">
+        <v>267.28537</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:6">
+      <c r="A1941" s="2">
+        <v>45540.08333333334</v>
+      </c>
+      <c r="B1941">
+        <v>58021.99</v>
+      </c>
+      <c r="C1941">
+        <v>58063.99</v>
+      </c>
+      <c r="D1941">
+        <v>57749</v>
+      </c>
+      <c r="E1941">
+        <v>57832</v>
+      </c>
+      <c r="F1941">
+        <v>491.08337</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:6">
+      <c r="A1942" s="2">
+        <v>45540.10416666666</v>
+      </c>
+      <c r="B1942">
+        <v>57831.99</v>
+      </c>
+      <c r="C1942">
+        <v>57856</v>
+      </c>
+      <c r="D1942">
+        <v>57653.13</v>
+      </c>
+      <c r="E1942">
+        <v>57692.99</v>
+      </c>
+      <c r="F1942">
+        <v>292.02662</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:6">
+      <c r="A1943" s="2">
+        <v>45540.125</v>
+      </c>
+      <c r="B1943">
+        <v>57693</v>
+      </c>
+      <c r="C1943">
+        <v>57693</v>
+      </c>
+      <c r="D1943">
+        <v>57001.01</v>
+      </c>
+      <c r="E1943">
+        <v>57085.71</v>
+      </c>
+      <c r="F1943">
+        <v>1589.73886</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:6">
+      <c r="A1944" s="2">
+        <v>45540.14583333334</v>
+      </c>
+      <c r="B1944">
+        <v>57085.7</v>
+      </c>
+      <c r="C1944">
+        <v>57201</v>
+      </c>
+      <c r="D1944">
+        <v>56891.07</v>
+      </c>
+      <c r="E1944">
+        <v>57135.42</v>
+      </c>
+      <c r="F1944">
+        <v>910.54824</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:6">
+      <c r="A1945" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1945">
+        <v>57135.42</v>
+      </c>
+      <c r="C1945">
+        <v>57278.88</v>
+      </c>
+      <c r="D1945">
+        <v>57076.01</v>
+      </c>
+      <c r="E1945">
+        <v>57235.99</v>
+      </c>
+      <c r="F1945">
+        <v>383.5512</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:6">
+      <c r="A1946" s="2">
+        <v>45540.1875</v>
+      </c>
+      <c r="B1946">
+        <v>57236</v>
+      </c>
+      <c r="C1946">
+        <v>57291.1</v>
+      </c>
+      <c r="D1946">
+        <v>57150</v>
+      </c>
+      <c r="E1946">
+        <v>57206.4</v>
+      </c>
+      <c r="F1946">
+        <v>289.13253</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:6">
+      <c r="A1947" s="2">
+        <v>45540.20833333334</v>
+      </c>
+      <c r="B1947">
+        <v>57206.4</v>
+      </c>
+      <c r="C1947">
+        <v>57268.75</v>
+      </c>
+      <c r="D1947">
+        <v>57029</v>
+      </c>
+      <c r="E1947">
+        <v>57261.45</v>
+      </c>
+      <c r="F1947">
+        <v>340.51329</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:6">
+      <c r="A1948" s="2">
+        <v>45540.22916666666</v>
+      </c>
+      <c r="B1948">
+        <v>57261.45</v>
+      </c>
+      <c r="C1948">
+        <v>57261.46</v>
+      </c>
+      <c r="D1948">
+        <v>57141</v>
+      </c>
+      <c r="E1948">
+        <v>57194.99</v>
+      </c>
+      <c r="F1948">
+        <v>208.78225</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:6">
+      <c r="A1949" s="2">
+        <v>45540.25</v>
+      </c>
+      <c r="B1949">
+        <v>57195</v>
+      </c>
+      <c r="C1949">
+        <v>57222.78</v>
+      </c>
+      <c r="D1949">
+        <v>56541.68</v>
+      </c>
+      <c r="E1949">
+        <v>56851.99</v>
+      </c>
+      <c r="F1949">
+        <v>978.1178</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:6">
+      <c r="A1950" s="2">
+        <v>45540.27083333334</v>
+      </c>
+      <c r="B1950">
+        <v>56852</v>
+      </c>
+      <c r="C1950">
+        <v>56948</v>
+      </c>
+      <c r="D1950">
+        <v>56739</v>
+      </c>
+      <c r="E1950">
+        <v>56914.01</v>
+      </c>
+      <c r="F1950">
+        <v>345.74545</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:6">
+      <c r="A1951" s="2">
+        <v>45540.29166666666</v>
+      </c>
+      <c r="B1951">
+        <v>56914.01</v>
+      </c>
+      <c r="C1951">
+        <v>57220.03</v>
+      </c>
+      <c r="D1951">
+        <v>56831.71</v>
+      </c>
+      <c r="E1951">
+        <v>57189</v>
+      </c>
+      <c r="F1951">
+        <v>517.50111</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:6">
+      <c r="A1952" s="2">
+        <v>45540.3125</v>
+      </c>
+      <c r="B1952">
+        <v>57188.99</v>
+      </c>
+      <c r="C1952">
+        <v>57245.03</v>
+      </c>
+      <c r="D1952">
+        <v>57154</v>
+      </c>
+      <c r="E1952">
+        <v>57155.1</v>
+      </c>
+      <c r="F1952">
+        <v>274.22172</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:6">
+      <c r="A1953" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1953">
+        <v>57155.1</v>
+      </c>
+      <c r="C1953">
+        <v>57232</v>
+      </c>
+      <c r="D1953">
+        <v>57141.4</v>
+      </c>
+      <c r="E1953">
+        <v>57154</v>
+      </c>
+      <c r="F1953">
+        <v>223.24893</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:6">
+      <c r="A1954" s="2">
+        <v>45540.35416666666</v>
+      </c>
+      <c r="B1954">
+        <v>57154.01</v>
+      </c>
+      <c r="C1954">
+        <v>57179</v>
+      </c>
+      <c r="D1954">
+        <v>56952.65</v>
+      </c>
+      <c r="E1954">
+        <v>57004</v>
+      </c>
+      <c r="F1954">
+        <v>404.2775</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:6">
+      <c r="A1955" s="2">
+        <v>45540.375</v>
+      </c>
+      <c r="B1955">
+        <v>57004</v>
+      </c>
+      <c r="C1955">
+        <v>57012</v>
+      </c>
+      <c r="D1955">
+        <v>56761</v>
+      </c>
+      <c r="E1955">
+        <v>56820.36</v>
+      </c>
+      <c r="F1955">
+        <v>502.17108</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:6">
+      <c r="A1956" s="2">
+        <v>45540.39583333334</v>
+      </c>
+      <c r="B1956">
+        <v>56820.37</v>
+      </c>
+      <c r="C1956">
+        <v>56944.78</v>
+      </c>
+      <c r="D1956">
+        <v>56623</v>
+      </c>
+      <c r="E1956">
+        <v>56797</v>
+      </c>
+      <c r="F1956">
+        <v>511.786</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:6">
+      <c r="A1957" s="2">
+        <v>45540.41666666666</v>
+      </c>
+      <c r="B1957">
+        <v>56797</v>
+      </c>
+      <c r="C1957">
+        <v>56848.97</v>
+      </c>
+      <c r="D1957">
+        <v>56658</v>
+      </c>
+      <c r="E1957">
+        <v>56722.67</v>
+      </c>
+      <c r="F1957">
+        <v>289.47792</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:6">
+      <c r="A1958" s="2">
+        <v>45540.4375</v>
+      </c>
+      <c r="B1958">
+        <v>56722.66</v>
+      </c>
+      <c r="C1958">
+        <v>56846.69</v>
+      </c>
+      <c r="D1958">
+        <v>56654.31</v>
+      </c>
+      <c r="E1958">
+        <v>56771</v>
+      </c>
+      <c r="F1958">
+        <v>296.60219</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:6">
+      <c r="A1959" s="2">
+        <v>45540.45833333334</v>
+      </c>
+      <c r="B1959">
+        <v>56771</v>
+      </c>
+      <c r="C1959">
+        <v>56849</v>
+      </c>
+      <c r="D1959">
+        <v>56663</v>
+      </c>
+      <c r="E1959">
+        <v>56782.28</v>
+      </c>
+      <c r="F1959">
+        <v>335.12787</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:6">
+      <c r="A1960" s="2">
+        <v>45540.47916666666</v>
+      </c>
+      <c r="B1960">
+        <v>56782.28</v>
+      </c>
+      <c r="C1960">
+        <v>56863.8</v>
+      </c>
+      <c r="D1960">
+        <v>56667.99</v>
+      </c>
+      <c r="E1960">
+        <v>56698.01</v>
+      </c>
+      <c r="F1960">
+        <v>262.2866</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:6">
+      <c r="A1961" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1961">
+        <v>56698.01</v>
+      </c>
+      <c r="C1961">
+        <v>56850</v>
+      </c>
+      <c r="D1961">
+        <v>56318</v>
+      </c>
+      <c r="E1961">
+        <v>56602.01</v>
+      </c>
+      <c r="F1961">
+        <v>1297.63169</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:6">
+      <c r="A1962" s="2">
+        <v>45540.52083333334</v>
+      </c>
+      <c r="B1962">
+        <v>56602.01</v>
+      </c>
+      <c r="C1962">
+        <v>56794</v>
+      </c>
+      <c r="D1962">
+        <v>56447.01</v>
+      </c>
+      <c r="E1962">
+        <v>56662</v>
+      </c>
+      <c r="F1962">
+        <v>664.70165</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:6">
+      <c r="A1963" s="2">
+        <v>45540.54166666666</v>
+      </c>
+      <c r="B1963">
+        <v>56662.01</v>
+      </c>
+      <c r="C1963">
+        <v>56800.03</v>
+      </c>
+      <c r="D1963">
+        <v>56582</v>
+      </c>
+      <c r="E1963">
+        <v>56709.01</v>
+      </c>
+      <c r="F1963">
+        <v>486.34525</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:6">
+      <c r="A1964" s="2">
+        <v>45540.5625</v>
+      </c>
+      <c r="B1964">
+        <v>56709.01</v>
+      </c>
+      <c r="C1964">
+        <v>57158.81</v>
+      </c>
+      <c r="D1964">
+        <v>56571.47</v>
+      </c>
+      <c r="E1964">
+        <v>57028.62</v>
+      </c>
+      <c r="F1964">
+        <v>1418.01435</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:6">
+      <c r="A1965" s="2">
+        <v>45540.58333333334</v>
+      </c>
+      <c r="B1965">
+        <v>57028.62</v>
+      </c>
+      <c r="C1965">
+        <v>57350</v>
+      </c>
+      <c r="D1965">
+        <v>56690</v>
+      </c>
+      <c r="E1965">
+        <v>57028</v>
+      </c>
+      <c r="F1965">
+        <v>1611.70113</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:6">
+      <c r="A1966" s="2">
+        <v>45540.60416666666</v>
+      </c>
+      <c r="B1966">
+        <v>57028.01</v>
+      </c>
+      <c r="C1966">
+        <v>57187</v>
+      </c>
+      <c r="D1966">
+        <v>56479.36</v>
+      </c>
+      <c r="E1966">
+        <v>56558.01</v>
+      </c>
+      <c r="F1966">
+        <v>1122.94398</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:6">
+      <c r="A1967" s="2">
+        <v>45540.625</v>
+      </c>
+      <c r="B1967">
+        <v>56558</v>
+      </c>
+      <c r="C1967">
+        <v>56674.83</v>
+      </c>
+      <c r="D1967">
+        <v>55934</v>
+      </c>
+      <c r="E1967">
+        <v>55977</v>
+      </c>
+      <c r="F1967">
+        <v>2512.89633</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:6">
+      <c r="A1968" s="2">
+        <v>45540.64583333334</v>
+      </c>
+      <c r="B1968">
+        <v>55977</v>
+      </c>
+      <c r="C1968">
+        <v>56204.17</v>
+      </c>
+      <c r="D1968">
+        <v>55817.51</v>
+      </c>
+      <c r="E1968">
+        <v>55976.01</v>
+      </c>
+      <c r="F1968">
+        <v>1085.8551</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:6">
+      <c r="A1969" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1969">
+        <v>55976.01</v>
+      </c>
+      <c r="C1969">
+        <v>56301.64</v>
+      </c>
+      <c r="D1969">
+        <v>55960</v>
+      </c>
+      <c r="E1969">
+        <v>56198</v>
+      </c>
+      <c r="F1969">
+        <v>749.9586</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:6">
+      <c r="A1970" s="2">
+        <v>45540.6875</v>
+      </c>
+      <c r="B1970">
+        <v>56198.01</v>
+      </c>
+      <c r="C1970">
+        <v>56416.65</v>
+      </c>
+      <c r="D1970">
+        <v>56078.3</v>
+      </c>
+      <c r="E1970">
+        <v>56335</v>
+      </c>
+      <c r="F1970">
+        <v>473.36402</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:6">
+      <c r="A1971" s="2">
+        <v>45540.70833333334</v>
+      </c>
+      <c r="B1971">
+        <v>56335</v>
+      </c>
+      <c r="C1971">
+        <v>56462</v>
+      </c>
+      <c r="D1971">
+        <v>56241.1</v>
+      </c>
+      <c r="E1971">
+        <v>56248.1</v>
+      </c>
+      <c r="F1971">
+        <v>452.83452</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:6">
+      <c r="A1972" s="2">
+        <v>45540.72916666666</v>
+      </c>
+      <c r="B1972">
+        <v>56248.99</v>
+      </c>
+      <c r="C1972">
+        <v>56614</v>
+      </c>
+      <c r="D1972">
+        <v>56200.42</v>
+      </c>
+      <c r="E1972">
+        <v>56602.99</v>
+      </c>
+      <c r="F1972">
+        <v>440.24592</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:6">
+      <c r="A1973" s="2">
+        <v>45540.75</v>
+      </c>
+      <c r="B1973">
+        <v>56603</v>
+      </c>
+      <c r="C1973">
+        <v>56676</v>
+      </c>
+      <c r="D1973">
+        <v>56506.3</v>
+      </c>
+      <c r="E1973">
+        <v>56636</v>
+      </c>
+      <c r="F1973">
+        <v>391.42076</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:6">
+      <c r="A1974" s="2">
+        <v>45540.77083333334</v>
+      </c>
+      <c r="B1974">
+        <v>56635.99</v>
+      </c>
+      <c r="C1974">
+        <v>56710</v>
+      </c>
+      <c r="D1974">
+        <v>56539</v>
+      </c>
+      <c r="E1974">
+        <v>56548.99</v>
+      </c>
+      <c r="F1974">
+        <v>211.17619</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:6">
+      <c r="A1975" s="2">
+        <v>45540.79166666666</v>
+      </c>
+      <c r="B1975">
+        <v>56549</v>
+      </c>
+      <c r="C1975">
+        <v>56568</v>
+      </c>
+      <c r="D1975">
+        <v>55972</v>
+      </c>
+      <c r="E1975">
+        <v>56246</v>
+      </c>
+      <c r="F1975">
+        <v>754.66215</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:6">
+      <c r="A1976" s="2">
+        <v>45540.8125</v>
+      </c>
+      <c r="B1976">
+        <v>56246.01</v>
+      </c>
+      <c r="C1976">
+        <v>56381.1</v>
+      </c>
+      <c r="D1976">
+        <v>55800</v>
+      </c>
+      <c r="E1976">
+        <v>56060.01</v>
+      </c>
+      <c r="F1976">
+        <v>832.9215</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:6">
+      <c r="A1977" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1977">
+        <v>56060</v>
+      </c>
+      <c r="C1977">
+        <v>56208</v>
+      </c>
+      <c r="D1977">
+        <v>56010</v>
+      </c>
+      <c r="E1977">
+        <v>56112</v>
+      </c>
+      <c r="F1977">
+        <v>355.87434</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:6">
+      <c r="A1978" s="2">
+        <v>45540.85416666666</v>
+      </c>
+      <c r="B1978">
+        <v>56112</v>
+      </c>
+      <c r="C1978">
+        <v>56259.97</v>
+      </c>
+      <c r="D1978">
+        <v>56036</v>
+      </c>
+      <c r="E1978">
+        <v>56094</v>
+      </c>
+      <c r="F1978">
+        <v>308.32202</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:6">
+      <c r="A1979" s="2">
+        <v>45540.875</v>
+      </c>
+      <c r="B1979">
+        <v>56094</v>
+      </c>
+      <c r="C1979">
+        <v>56245.74</v>
+      </c>
+      <c r="D1979">
+        <v>56068.35</v>
+      </c>
+      <c r="E1979">
+        <v>56188.01</v>
+      </c>
+      <c r="F1979">
+        <v>118.18108</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:6">
+      <c r="A1980" s="2">
+        <v>45540.89583333334</v>
+      </c>
+      <c r="B1980">
+        <v>56188.01</v>
+      </c>
+      <c r="C1980">
+        <v>56253.44</v>
+      </c>
+      <c r="D1980">
+        <v>55643.65</v>
+      </c>
+      <c r="E1980">
+        <v>56150.6</v>
+      </c>
+      <c r="F1980">
+        <v>783.77627</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:6">
+      <c r="A1981" s="2">
+        <v>45540.91666666666</v>
+      </c>
+      <c r="B1981">
+        <v>56150.59</v>
+      </c>
+      <c r="C1981">
+        <v>56227.5</v>
+      </c>
+      <c r="D1981">
+        <v>55783</v>
+      </c>
+      <c r="E1981">
+        <v>55960</v>
+      </c>
+      <c r="F1981">
+        <v>302.00194</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:6">
+      <c r="A1982" s="2">
+        <v>45540.9375</v>
+      </c>
+      <c r="B1982">
+        <v>55960.01</v>
+      </c>
+      <c r="C1982">
+        <v>56159.33</v>
+      </c>
+      <c r="D1982">
+        <v>55951</v>
+      </c>
+      <c r="E1982">
+        <v>56104.6</v>
+      </c>
+      <c r="F1982">
+        <v>219.41065</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:6">
+      <c r="A1983" s="2">
+        <v>45540.95833333334</v>
+      </c>
+      <c r="B1983">
+        <v>56104.99</v>
+      </c>
+      <c r="C1983">
+        <v>56157.72</v>
+      </c>
+      <c r="D1983">
+        <v>55993.45</v>
+      </c>
+      <c r="E1983">
+        <v>56099.21</v>
+      </c>
+      <c r="F1983">
+        <v>154.37034</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:6">
+      <c r="A1984" s="2">
+        <v>45540.97916666666</v>
+      </c>
+      <c r="B1984">
+        <v>56099.21</v>
+      </c>
+      <c r="C1984">
+        <v>56208</v>
+      </c>
+      <c r="D1984">
+        <v>56036</v>
+      </c>
+      <c r="E1984">
+        <v>56180</v>
+      </c>
+      <c r="F1984">
+        <v>177.73215</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:6">
+      <c r="A1985" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1985">
+        <v>56180</v>
+      </c>
+      <c r="C1985">
+        <v>56333.82</v>
+      </c>
+      <c r="D1985">
+        <v>56178</v>
+      </c>
+      <c r="E1985">
+        <v>56250</v>
+      </c>
+      <c r="F1985">
+        <v>258.79093</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:6">
+      <c r="A1986" s="2">
+        <v>45541.02083333334</v>
+      </c>
+      <c r="B1986">
+        <v>56250</v>
+      </c>
+      <c r="C1986">
+        <v>56294</v>
+      </c>
+      <c r="D1986">
+        <v>55989</v>
+      </c>
+      <c r="E1986">
+        <v>56182</v>
+      </c>
+      <c r="F1986">
+        <v>338.64024</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:6">
+      <c r="A1987" s="2">
+        <v>45541.04166666666</v>
+      </c>
+      <c r="B1987">
+        <v>56182.01</v>
+      </c>
+      <c r="C1987">
+        <v>56283</v>
+      </c>
+      <c r="D1987">
+        <v>55993</v>
+      </c>
+      <c r="E1987">
+        <v>56207.99</v>
+      </c>
+      <c r="F1987">
+        <v>298.57284</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:6">
+      <c r="A1988" s="2">
+        <v>45541.0625</v>
+      </c>
+      <c r="B1988">
+        <v>56207.99</v>
+      </c>
+      <c r="C1988">
+        <v>56615.49</v>
+      </c>
+      <c r="D1988">
+        <v>56201.1</v>
+      </c>
+      <c r="E1988">
+        <v>56558.99</v>
+      </c>
+      <c r="F1988">
+        <v>613.30695</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:6">
+      <c r="A1989" s="2">
+        <v>45541.08333333334</v>
+      </c>
+      <c r="B1989">
+        <v>56559</v>
+      </c>
+      <c r="C1989">
+        <v>56858.88</v>
+      </c>
+      <c r="D1989">
+        <v>56499.87</v>
+      </c>
+      <c r="E1989">
+        <v>56759.99</v>
+      </c>
+      <c r="F1989">
+        <v>561.85761</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:6">
+      <c r="A1990" s="2">
+        <v>45541.10416666666</v>
+      </c>
+      <c r="B1990">
+        <v>56759.99</v>
+      </c>
+      <c r="C1990">
+        <v>56847</v>
+      </c>
+      <c r="D1990">
+        <v>56690</v>
+      </c>
+      <c r="E1990">
+        <v>56738</v>
+      </c>
+      <c r="F1990">
+        <v>378.39465</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:6">
+      <c r="A1991" s="2">
+        <v>45541.125</v>
+      </c>
+      <c r="B1991">
+        <v>56738</v>
+      </c>
+      <c r="C1991">
+        <v>56830.01</v>
+      </c>
+      <c r="D1991">
+        <v>56696.5</v>
+      </c>
+      <c r="E1991">
+        <v>56799.08</v>
+      </c>
+      <c r="F1991">
+        <v>314.08494</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:6">
+      <c r="A1992" s="2">
+        <v>45541.14583333334</v>
+      </c>
+      <c r="B1992">
+        <v>56799.08</v>
+      </c>
+      <c r="C1992">
+        <v>56840.88</v>
+      </c>
+      <c r="D1992">
+        <v>56532</v>
+      </c>
+      <c r="E1992">
+        <v>56588</v>
+      </c>
+      <c r="F1992">
+        <v>325.50508</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:6">
+      <c r="A1993" s="2">
+        <v>45541.16666666666</v>
+      </c>
+      <c r="B1993">
+        <v>56588.01</v>
+      </c>
+      <c r="C1993">
+        <v>56747.91</v>
+      </c>
+      <c r="D1993">
+        <v>56588</v>
+      </c>
+      <c r="E1993">
+        <v>56695.49</v>
+      </c>
+      <c r="F1993">
+        <v>233.62401</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:6">
+      <c r="A1994" s="2">
+        <v>45541.1875</v>
+      </c>
+      <c r="B1994">
+        <v>56695.48</v>
+      </c>
+      <c r="C1994">
+        <v>56720</v>
+      </c>
+      <c r="D1994">
+        <v>56585.29</v>
+      </c>
+      <c r="E1994">
+        <v>56594.66</v>
+      </c>
+      <c r="F1994">
+        <v>184.92585</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:6">
+      <c r="A1995" s="2">
+        <v>45541.20833333334</v>
+      </c>
+      <c r="B1995">
+        <v>56594.67</v>
+      </c>
+      <c r="C1995">
+        <v>56665.26</v>
+      </c>
+      <c r="D1995">
+        <v>56340</v>
+      </c>
+      <c r="E1995">
+        <v>56367.22</v>
+      </c>
+      <c r="F1995">
+        <v>550.2765900000001</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:6">
+      <c r="A1996" s="2">
+        <v>45541.22916666666</v>
+      </c>
+      <c r="B1996">
+        <v>56367.22</v>
+      </c>
+      <c r="C1996">
+        <v>56539.99</v>
+      </c>
+      <c r="D1996">
+        <v>56295.49</v>
+      </c>
+      <c r="E1996">
+        <v>56491.01</v>
+      </c>
+      <c r="F1996">
+        <v>309.44062</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:6">
+      <c r="A1997" s="2">
+        <v>45541.25</v>
+      </c>
+      <c r="B1997">
+        <v>56491.01</v>
+      </c>
+      <c r="C1997">
+        <v>56518</v>
+      </c>
+      <c r="D1997">
+        <v>56338</v>
+      </c>
+      <c r="E1997">
+        <v>56341.11</v>
+      </c>
+      <c r="F1997">
+        <v>246.66039</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:6">
+      <c r="A1998" s="2">
+        <v>45541.27083333334</v>
+      </c>
+      <c r="B1998">
+        <v>56341.11</v>
+      </c>
+      <c r="C1998">
+        <v>56476.05</v>
+      </c>
+      <c r="D1998">
+        <v>56278.57</v>
+      </c>
+      <c r="E1998">
+        <v>56430.01</v>
+      </c>
+      <c r="F1998">
+        <v>308.8006</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:6">
+      <c r="A1999" s="2">
+        <v>45541.29166666666</v>
+      </c>
+      <c r="B1999">
+        <v>56430.01</v>
+      </c>
+      <c r="C1999">
+        <v>56439</v>
+      </c>
+      <c r="D1999">
+        <v>55322</v>
+      </c>
+      <c r="E1999">
+        <v>55568</v>
+      </c>
+      <c r="F1999">
+        <v>2442.34999</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:6">
+      <c r="A2000" s="2">
+        <v>45541.3125</v>
+      </c>
+      <c r="B2000">
+        <v>55567.99</v>
+      </c>
+      <c r="C2000">
+        <v>55871</v>
+      </c>
+      <c r="D2000">
+        <v>55280</v>
+      </c>
+      <c r="E2000">
+        <v>55804.29</v>
+      </c>
+      <c r="F2000">
+        <v>1667.77467</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:6">
+      <c r="A2001" s="2">
+        <v>45541.33333333334</v>
+      </c>
+      <c r="B2001">
+        <v>55804.28</v>
+      </c>
+      <c r="C2001">
+        <v>55938.42</v>
+      </c>
+      <c r="D2001">
+        <v>55737</v>
+      </c>
+      <c r="E2001">
+        <v>55828.01</v>
+      </c>
+      <c r="F2001">
+        <v>647.07812</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:6">
+      <c r="A2002" s="2">
+        <v>45541.35416666666</v>
+      </c>
+      <c r="B2002">
+        <v>55828</v>
+      </c>
+      <c r="C2002">
+        <v>55905</v>
+      </c>
+      <c r="D2002">
+        <v>55639</v>
+      </c>
+      <c r="E2002">
+        <v>55783.01</v>
+      </c>
+      <c r="F2002">
+        <v>609.3687200000001</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:6">
+      <c r="A2003" s="2">
+        <v>45541.375</v>
+      </c>
+      <c r="B2003">
+        <v>55783.01</v>
+      </c>
+      <c r="C2003">
+        <v>55832.99</v>
+      </c>
+      <c r="D2003">
+        <v>55676.72</v>
+      </c>
+      <c r="E2003">
+        <v>55757</v>
+      </c>
+      <c r="F2003">
+        <v>319.16919</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:6">
+      <c r="A2004" s="2">
+        <v>45541.39583333334</v>
+      </c>
+      <c r="B2004">
+        <v>55756.99</v>
+      </c>
+      <c r="C2004">
+        <v>55925.46</v>
+      </c>
+      <c r="D2004">
+        <v>55730.09</v>
+      </c>
+      <c r="E2004">
+        <v>55889.86</v>
+      </c>
+      <c r="F2004">
+        <v>723.45481</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:6">
+      <c r="A2005" s="2">
+        <v>45541.41666666666</v>
+      </c>
+      <c r="B2005">
+        <v>55889.86</v>
+      </c>
+      <c r="C2005">
+        <v>56176</v>
+      </c>
+      <c r="D2005">
+        <v>55889.85</v>
+      </c>
+      <c r="E2005">
+        <v>56133</v>
+      </c>
+      <c r="F2005">
+        <v>457.37589</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:6">
+      <c r="A2006" s="2">
+        <v>45541.4375</v>
+      </c>
+      <c r="B2006">
+        <v>56133</v>
+      </c>
+      <c r="C2006">
+        <v>56262.11</v>
+      </c>
+      <c r="D2006">
+        <v>56095</v>
+      </c>
+      <c r="E2006">
+        <v>56178.01</v>
+      </c>
+      <c r="F2006">
+        <v>433.0066</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:6">
+      <c r="A2007" s="2">
+        <v>45541.45833333334</v>
+      </c>
+      <c r="B2007">
+        <v>56178.01</v>
+      </c>
+      <c r="C2007">
+        <v>56252</v>
+      </c>
+      <c r="D2007">
+        <v>55959.99</v>
+      </c>
+      <c r="E2007">
+        <v>55984</v>
+      </c>
+      <c r="F2007">
+        <v>528.68469</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:6">
+      <c r="A2008" s="2">
+        <v>45541.47916666666</v>
+      </c>
+      <c r="B2008">
+        <v>55984.01</v>
+      </c>
+      <c r="C2008">
+        <v>56074</v>
+      </c>
+      <c r="D2008">
+        <v>55826.26</v>
+      </c>
+      <c r="E2008">
+        <v>55999.09</v>
+      </c>
+      <c r="F2008">
+        <v>398.123</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:6">
+      <c r="A2009" s="2">
+        <v>45541.5</v>
+      </c>
+      <c r="B2009">
+        <v>55999.09</v>
+      </c>
+      <c r="C2009">
+        <v>56089</v>
+      </c>
+      <c r="D2009">
+        <v>55846</v>
+      </c>
+      <c r="E2009">
+        <v>56014.01</v>
+      </c>
+      <c r="F2009">
+        <v>503.31871</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:6">
+      <c r="A2010" s="2">
+        <v>45541.52083333334</v>
+      </c>
+      <c r="B2010">
+        <v>55896.4</v>
+      </c>
+      <c r="C2010">
+        <v>56843.03</v>
+      </c>
+      <c r="D2010">
+        <v>55653.42</v>
+      </c>
+      <c r="E2010">
+        <v>56434.56</v>
+      </c>
+      <c r="F2010">
+        <v>1633.61542</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:6">
+      <c r="A2011" s="2">
+        <v>45541.54166666666</v>
+      </c>
+      <c r="B2011">
+        <v>56873.99</v>
+      </c>
+      <c r="C2011">
+        <v>57008</v>
+      </c>
+      <c r="D2011">
+        <v>56662.61</v>
+      </c>
+      <c r="E2011">
+        <v>56754.1</v>
+      </c>
+      <c r="F2011">
+        <v>1070.68598</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:6">
+      <c r="A2012" s="2">
+        <v>45541.5625</v>
+      </c>
+      <c r="B2012">
+        <v>56754.1</v>
+      </c>
+      <c r="C2012">
+        <v>56869.99</v>
+      </c>
+      <c r="D2012">
+        <v>56529</v>
+      </c>
+      <c r="E2012">
+        <v>56610.01</v>
+      </c>
+      <c r="F2012">
+        <v>452.37235</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:6">
+      <c r="A2013" s="2">
+        <v>45541.58333333334</v>
+      </c>
+      <c r="B2013">
+        <v>55896.01</v>
+      </c>
+      <c r="C2013">
+        <v>55931.35</v>
+      </c>
+      <c r="D2013">
+        <v>55666.42</v>
+      </c>
+      <c r="E2013">
+        <v>55923.2</v>
+      </c>
+      <c r="F2013">
+        <v>350.68039</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:6">
+      <c r="A2014" s="2">
+        <v>45541.60416666666</v>
+      </c>
+      <c r="B2014">
+        <v>54819.65</v>
+      </c>
+      <c r="C2014">
+        <v>54894</v>
+      </c>
+      <c r="D2014">
+        <v>54780</v>
+      </c>
+      <c r="E2014">
+        <v>54892.99</v>
+      </c>
+      <c r="F2014">
+        <v>201.60924</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
